--- a/processing/2014_BERDO_CLEANED_RANKED.xlsx
+++ b/processing/2014_BERDO_CLEANED_RANKED.xlsx
@@ -5,11 +5,11 @@
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cmackey\Documents\GitHub\BattleOfTheBldgs_Mockup\processing\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kgoulding\Documents\Development\JavaScript\GitHub\BattleOfTheBldgs_Mockup\processing\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-20" yWindow="50" windowWidth="29040" windowHeight="16380"/>
+    <workbookView xWindow="-24" yWindow="48" windowWidth="29040" windowHeight="16380"/>
   </bookViews>
   <sheets>
     <sheet name="Ranked" sheetId="5" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="240">
   <si>
     <t>Property Name</t>
   </si>
@@ -528,13 +528,229 @@
   </si>
   <si>
     <t>Consolidated Property Types</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>hospital_1</t>
+  </si>
+  <si>
+    <t>hotel_2</t>
+  </si>
+  <si>
+    <t>hospital_2</t>
+  </si>
+  <si>
+    <t>hospital_3</t>
+  </si>
+  <si>
+    <t>hospital_4</t>
+  </si>
+  <si>
+    <t>hospital_5</t>
+  </si>
+  <si>
+    <t>hospital_6</t>
+  </si>
+  <si>
+    <t>hospital_7</t>
+  </si>
+  <si>
+    <t>hospital_8</t>
+  </si>
+  <si>
+    <t>hospital_9</t>
+  </si>
+  <si>
+    <t>hospital_10</t>
+  </si>
+  <si>
+    <t>hotel_1</t>
+  </si>
+  <si>
+    <t>hotel_3</t>
+  </si>
+  <si>
+    <t>hotel_4</t>
+  </si>
+  <si>
+    <t>hotel_5</t>
+  </si>
+  <si>
+    <t>hotel_6</t>
+  </si>
+  <si>
+    <t>hotel_7</t>
+  </si>
+  <si>
+    <t>hotel_8</t>
+  </si>
+  <si>
+    <t>hotel_9</t>
+  </si>
+  <si>
+    <t>hotel_10</t>
+  </si>
+  <si>
+    <t>school_1</t>
+  </si>
+  <si>
+    <t>school_2</t>
+  </si>
+  <si>
+    <t>school_3</t>
+  </si>
+  <si>
+    <t>school_4</t>
+  </si>
+  <si>
+    <t>school_5</t>
+  </si>
+  <si>
+    <t>school_6</t>
+  </si>
+  <si>
+    <t>school_7</t>
+  </si>
+  <si>
+    <t>school_8</t>
+  </si>
+  <si>
+    <t>school_9</t>
+  </si>
+  <si>
+    <t>school_10</t>
+  </si>
+  <si>
+    <t>lab_1</t>
+  </si>
+  <si>
+    <t>lab_2</t>
+  </si>
+  <si>
+    <t>lab_6</t>
+  </si>
+  <si>
+    <t>lab_3</t>
+  </si>
+  <si>
+    <t>lab_4</t>
+  </si>
+  <si>
+    <t>lab_5</t>
+  </si>
+  <si>
+    <t>lab_7</t>
+  </si>
+  <si>
+    <t>lab_8</t>
+  </si>
+  <si>
+    <t>lab_9</t>
+  </si>
+  <si>
+    <t>lab_10</t>
+  </si>
+  <si>
+    <t>multifamily_1</t>
+  </si>
+  <si>
+    <t>multifamily_2</t>
+  </si>
+  <si>
+    <t>office_1</t>
+  </si>
+  <si>
+    <t>office_2</t>
+  </si>
+  <si>
+    <t>multifamily_3</t>
+  </si>
+  <si>
+    <t>multifamily_4</t>
+  </si>
+  <si>
+    <t>multifamily_5</t>
+  </si>
+  <si>
+    <t>multifamily_6</t>
+  </si>
+  <si>
+    <t>multifamily_7</t>
+  </si>
+  <si>
+    <t>multifamily_8</t>
+  </si>
+  <si>
+    <t>multifamily_9</t>
+  </si>
+  <si>
+    <t>multifamily_10</t>
+  </si>
+  <si>
+    <t>office_4</t>
+  </si>
+  <si>
+    <t>office_9</t>
+  </si>
+  <si>
+    <t>office_3</t>
+  </si>
+  <si>
+    <t>office_5</t>
+  </si>
+  <si>
+    <t>office_8</t>
+  </si>
+  <si>
+    <t>office_6</t>
+  </si>
+  <si>
+    <t>office_7</t>
+  </si>
+  <si>
+    <t>office_10</t>
+  </si>
+  <si>
+    <t>dorm_10</t>
+  </si>
+  <si>
+    <t>dorm_1</t>
+  </si>
+  <si>
+    <t>dorm_2</t>
+  </si>
+  <si>
+    <t>dorm_3</t>
+  </si>
+  <si>
+    <t>dorm_4</t>
+  </si>
+  <si>
+    <t>dorm_5</t>
+  </si>
+  <si>
+    <t>dorm_6</t>
+  </si>
+  <si>
+    <t>dorm_7</t>
+  </si>
+  <si>
+    <t>dorm_8</t>
+  </si>
+  <si>
+    <t>dorm_9</t>
+  </si>
+  <si>
+    <t>Rank</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -549,6 +765,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FF008000"/>
+      <name val="Courier New"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="9">
@@ -622,7 +845,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -641,6 +864,9 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -946,3526 +1172,3983 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr published="0"/>
-  <dimension ref="A1:U71"/>
+  <dimension ref="A1:W81"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" topLeftCell="A65" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C77" sqref="C77"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="49.7265625" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.54296875" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="32.1796875" style="3" customWidth="1"/>
-    <col min="4" max="4" width="7.1796875" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.26953125" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.54296875" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.7265625" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.54296875" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.54296875" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.26953125" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.54296875" style="3" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18.26953125" style="3" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="20.81640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="38" style="3" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="40.54296875" style="3" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="29.81640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="31.453125" style="3" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="28.81640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="28" style="3" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="30.453125" style="3" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="65.7265625" style="3" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.1796875" style="3"/>
+    <col min="1" max="2" width="18" style="3" customWidth="1"/>
+    <col min="3" max="3" width="49.77734375" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.5546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="32.21875" style="3" customWidth="1"/>
+    <col min="6" max="7" width="7.21875" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.5546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.77734375" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.5546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.5546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.21875" style="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18.5546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.21875" style="3" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="20.77734375" style="3" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="38" style="3" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="40.5546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="29.77734375" style="3" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="31.44140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="28.77734375" style="3" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="28" style="3" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="30.44140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="65.77734375" style="3" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.21875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A2" s="18" t="s">
+        <v>169</v>
+      </c>
+      <c r="B2" s="18">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>162</v>
-      </c>
       <c r="F2" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="G2" s="2">
+        <v>115</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="I2" s="2">
         <v>2132</v>
       </c>
-      <c r="H2" s="2">
+      <c r="J2" s="2">
         <v>71242</v>
       </c>
-      <c r="I2" s="2">
+      <c r="K2" s="2">
         <v>1980</v>
       </c>
-      <c r="J2" s="2">
-        <v>2014</v>
-      </c>
-      <c r="K2" s="2">
+      <c r="L2" s="2">
+        <v>2014</v>
+      </c>
+      <c r="M2" s="2">
         <v>100</v>
       </c>
-      <c r="L2" s="2">
+      <c r="N2" s="2">
         <v>141.80000000000001</v>
       </c>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
       <c r="O2" s="2"/>
       <c r="P2" s="2"/>
       <c r="Q2" s="2"/>
-      <c r="R2" s="2">
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
+      <c r="T2" s="2">
         <v>512.4</v>
       </c>
-      <c r="S2" s="2"/>
-      <c r="T2" s="2"/>
       <c r="U2" s="2"/>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A3" s="2" t="s">
+      <c r="V2" s="2"/>
+      <c r="W2" s="2"/>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A3" s="18" t="s">
+        <v>171</v>
+      </c>
+      <c r="B3" s="18">
+        <v>2</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>162</v>
-      </c>
       <c r="F3" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="G3" s="2">
+        <v>115</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="I3" s="2">
         <v>2111</v>
       </c>
-      <c r="H3" s="2">
+      <c r="J3" s="2">
         <v>2102964</v>
       </c>
-      <c r="I3" s="2">
+      <c r="K3" s="2">
         <v>1982</v>
       </c>
-      <c r="J3" s="2">
-        <v>2014</v>
-      </c>
-      <c r="K3" s="2">
+      <c r="L3" s="2">
+        <v>2014</v>
+      </c>
+      <c r="M3" s="2">
         <v>75</v>
       </c>
-      <c r="L3" s="2">
+      <c r="N3" s="2">
         <v>174.4</v>
       </c>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
       <c r="O3" s="2"/>
       <c r="P3" s="2"/>
       <c r="Q3" s="2"/>
-      <c r="R3" s="2">
+      <c r="R3" s="2"/>
+      <c r="S3" s="2"/>
+      <c r="T3" s="2">
         <v>25142.6</v>
       </c>
-      <c r="S3" s="2">
+      <c r="U3" s="2">
         <v>29.32</v>
       </c>
-      <c r="T3" s="2"/>
-      <c r="U3" s="2"/>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A4" s="2" t="s">
+      <c r="V3" s="2"/>
+      <c r="W3" s="2"/>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A4" s="18" t="s">
+        <v>172</v>
+      </c>
+      <c r="B4" s="18">
+        <v>3</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="D4" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="E4" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>162</v>
-      </c>
       <c r="F4" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="G4" s="2">
+        <v>115</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="I4" s="2">
         <v>2131</v>
       </c>
-      <c r="H4" s="2">
+      <c r="J4" s="2">
         <v>419575</v>
       </c>
-      <c r="I4" s="2">
+      <c r="K4" s="2">
         <v>1963</v>
       </c>
-      <c r="J4" s="2">
-        <v>2014</v>
-      </c>
-      <c r="K4" s="2">
+      <c r="L4" s="2">
+        <v>2014</v>
+      </c>
+      <c r="M4" s="2">
         <v>91</v>
       </c>
-      <c r="L4" s="2">
+      <c r="N4" s="2">
         <v>182.4</v>
       </c>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
       <c r="O4" s="2"/>
       <c r="P4" s="2"/>
       <c r="Q4" s="2"/>
-      <c r="R4" s="2">
+      <c r="R4" s="2"/>
+      <c r="S4" s="2"/>
+      <c r="T4" s="2">
         <v>5215</v>
       </c>
-      <c r="S4" s="2"/>
-      <c r="T4" s="2"/>
       <c r="U4" s="2"/>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A5" s="2" t="s">
+      <c r="V4" s="2"/>
+      <c r="W4" s="2"/>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A5" s="18" t="s">
+        <v>173</v>
+      </c>
+      <c r="B5" s="18">
+        <v>4</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="D5" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="E5" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>162</v>
-      </c>
       <c r="F5" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="G5" s="2">
+        <v>115</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="I5" s="2">
         <v>2124</v>
       </c>
-      <c r="H5" s="2">
+      <c r="J5" s="2">
         <v>540000</v>
       </c>
-      <c r="I5" s="2">
+      <c r="K5" s="2">
         <v>1953</v>
       </c>
-      <c r="J5" s="2">
-        <v>2014</v>
-      </c>
-      <c r="K5" s="2">
+      <c r="L5" s="2">
+        <v>2014</v>
+      </c>
+      <c r="M5" s="2">
         <v>74</v>
       </c>
-      <c r="L5" s="2">
+      <c r="N5" s="2">
         <v>194.1</v>
       </c>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
       <c r="O5" s="2"/>
       <c r="P5" s="2"/>
       <c r="Q5" s="2"/>
-      <c r="R5" s="2">
+      <c r="R5" s="2"/>
+      <c r="S5" s="2"/>
+      <c r="T5" s="2">
         <v>7286.6</v>
       </c>
-      <c r="S5" s="2">
+      <c r="U5" s="2">
         <v>53.73</v>
       </c>
-      <c r="T5" s="2"/>
-      <c r="U5" s="2">
+      <c r="V5" s="2"/>
+      <c r="W5" s="2">
         <v>1605017010</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A6" s="2" t="s">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A6" s="18" t="s">
+        <v>174</v>
+      </c>
+      <c r="B6" s="18">
+        <v>5</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="D6" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="E6" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>162</v>
-      </c>
       <c r="F6" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="G6" s="2">
+        <v>115</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="I6" s="2">
         <v>2118</v>
       </c>
-      <c r="H6" s="2">
+      <c r="J6" s="2">
         <v>2828429</v>
       </c>
-      <c r="I6" s="2">
+      <c r="K6" s="2">
         <v>1986</v>
       </c>
-      <c r="J6" s="2">
-        <v>2014</v>
-      </c>
-      <c r="K6" s="2">
+      <c r="L6" s="2">
+        <v>2014</v>
+      </c>
+      <c r="M6" s="2">
         <v>33</v>
       </c>
-      <c r="L6" s="2">
+      <c r="N6" s="2">
         <v>215.2</v>
       </c>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
       <c r="O6" s="2"/>
       <c r="P6" s="2"/>
       <c r="Q6" s="2"/>
-      <c r="R6" s="2">
+      <c r="R6" s="2"/>
+      <c r="S6" s="2"/>
+      <c r="T6" s="2">
         <v>36992.5</v>
       </c>
-      <c r="S6" s="2">
+      <c r="U6" s="2">
         <v>40.85</v>
       </c>
-      <c r="T6" s="2"/>
-      <c r="U6" s="2"/>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A7" s="2" t="s">
+      <c r="V6" s="2"/>
+      <c r="W6" s="2"/>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A7" s="18" t="s">
+        <v>175</v>
+      </c>
+      <c r="B7" s="18">
+        <v>6</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="D7" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="E7" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>162</v>
-      </c>
       <c r="F7" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="G7" s="2">
+        <v>115</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="I7" s="2">
         <v>2135</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>651000</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>1960</v>
       </c>
-      <c r="J7" s="2">
-        <v>2014</v>
-      </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
+        <v>2014</v>
+      </c>
+      <c r="M7" s="2">
         <v>89</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>225.4</v>
       </c>
-      <c r="M7" s="2"/>
-      <c r="N7" s="2"/>
       <c r="O7" s="2"/>
       <c r="P7" s="2"/>
       <c r="Q7" s="2"/>
-      <c r="R7" s="2">
+      <c r="R7" s="2"/>
+      <c r="S7" s="2"/>
+      <c r="T7" s="2">
         <v>9356.6</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>24.39</v>
       </c>
-      <c r="T7" s="2"/>
-      <c r="U7" s="2" t="s">
+      <c r="V7" s="2"/>
+      <c r="W7" s="2" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="8" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="2" t="s">
+    <row r="8" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="18" t="s">
+        <v>176</v>
+      </c>
+      <c r="B8" s="18">
+        <v>7</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="D8" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="E8" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>162</v>
-      </c>
       <c r="F8" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="G8" s="2">
+        <v>115</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="I8" s="2">
         <v>2114</v>
       </c>
-      <c r="H8" s="2">
+      <c r="J8" s="2">
         <v>4637402</v>
       </c>
-      <c r="I8" s="2">
+      <c r="K8" s="2">
         <v>1811</v>
       </c>
-      <c r="J8" s="2">
-        <v>2014</v>
-      </c>
-      <c r="K8" s="2">
+      <c r="L8" s="2">
+        <v>2014</v>
+      </c>
+      <c r="M8" s="2">
         <v>17</v>
       </c>
-      <c r="L8" s="2">
+      <c r="N8" s="2">
         <v>253</v>
       </c>
-      <c r="M8" s="2"/>
-      <c r="N8" s="2"/>
       <c r="O8" s="2"/>
       <c r="P8" s="2"/>
       <c r="Q8" s="2"/>
-      <c r="R8" s="2">
+      <c r="R8" s="2"/>
+      <c r="S8" s="2"/>
+      <c r="T8" s="2">
         <v>77894.7</v>
       </c>
-      <c r="S8" s="2">
+      <c r="U8" s="2">
         <v>35.1</v>
       </c>
-      <c r="T8" s="2"/>
-      <c r="U8" s="2" t="s">
+      <c r="V8" s="2"/>
+      <c r="W8" s="2" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A9" s="2" t="s">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A9" s="18" t="s">
+        <v>177</v>
+      </c>
+      <c r="B9" s="18">
+        <v>8</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="D9" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="E9" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="D9" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>162</v>
-      </c>
       <c r="F9" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="G9" s="2">
+        <v>115</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="I9" s="2">
         <v>2120</v>
       </c>
-      <c r="H9" s="2">
+      <c r="J9" s="2">
         <v>425548</v>
       </c>
-      <c r="I9" s="2">
+      <c r="K9" s="2">
         <v>1893</v>
       </c>
-      <c r="J9" s="2">
-        <v>2014</v>
-      </c>
-      <c r="K9" s="2">
+      <c r="L9" s="2">
+        <v>2014</v>
+      </c>
+      <c r="M9" s="2">
         <v>9</v>
       </c>
-      <c r="L9" s="2">
+      <c r="N9" s="2">
         <v>282.10000000000002</v>
       </c>
-      <c r="M9" s="2"/>
-      <c r="N9" s="2"/>
       <c r="O9" s="2"/>
       <c r="P9" s="2"/>
       <c r="Q9" s="2"/>
-      <c r="R9" s="2">
+      <c r="R9" s="2"/>
+      <c r="S9" s="2"/>
+      <c r="T9" s="2">
         <v>8657.5</v>
       </c>
-      <c r="S9" s="2">
+      <c r="U9" s="2">
         <v>52.95</v>
       </c>
-      <c r="T9" s="2"/>
-      <c r="U9" s="2" t="s">
+      <c r="V9" s="2"/>
+      <c r="W9" s="2" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A10" s="2" t="s">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A10" s="18" t="s">
+        <v>178</v>
+      </c>
+      <c r="B10" s="18">
+        <v>9</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="D10" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="E10" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="D10" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>162</v>
-      </c>
       <c r="F10" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="G10" s="2">
+        <v>115</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="I10" s="2">
         <v>2115</v>
       </c>
-      <c r="H10" s="2">
+      <c r="J10" s="2">
         <v>2138279</v>
       </c>
-      <c r="I10" s="2">
+      <c r="K10" s="2">
         <v>1910</v>
       </c>
-      <c r="J10" s="2">
-        <v>2014</v>
-      </c>
-      <c r="K10" s="2">
+      <c r="L10" s="2">
+        <v>2014</v>
+      </c>
+      <c r="M10" s="2">
         <v>27</v>
       </c>
-      <c r="L10" s="2">
+      <c r="N10" s="2">
         <v>321.10000000000002</v>
       </c>
-      <c r="M10" s="2"/>
-      <c r="N10" s="2"/>
       <c r="O10" s="2"/>
       <c r="P10" s="2"/>
       <c r="Q10" s="2"/>
-      <c r="R10" s="2">
+      <c r="R10" s="2"/>
+      <c r="S10" s="2"/>
+      <c r="T10" s="2">
         <v>47893.7</v>
       </c>
-      <c r="S10" s="2">
+      <c r="U10" s="2">
         <v>26.67</v>
       </c>
-      <c r="T10" s="2"/>
-      <c r="U10" s="2">
+      <c r="V10" s="2"/>
+      <c r="W10" s="2">
         <v>401896000</v>
       </c>
     </row>
-    <row r="11" spans="1:21" s="11" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="10" t="s">
+    <row r="11" spans="1:23" s="11" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="18" t="s">
+        <v>179</v>
+      </c>
+      <c r="B11" s="18">
+        <v>10</v>
+      </c>
+      <c r="C11" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="D11" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="E11" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="D11" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="E11" s="10" t="s">
-        <v>162</v>
-      </c>
       <c r="F11" s="10" t="s">
-        <v>163</v>
-      </c>
-      <c r="G11" s="10">
+        <v>115</v>
+      </c>
+      <c r="G11" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="H11" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="I11" s="10">
         <v>2215</v>
       </c>
-      <c r="H11" s="10">
+      <c r="J11" s="10">
         <v>2921603</v>
       </c>
-      <c r="I11" s="10">
+      <c r="K11" s="10">
         <v>1975</v>
       </c>
-      <c r="J11" s="10">
-        <v>2014</v>
-      </c>
-      <c r="K11" s="10"/>
       <c r="L11" s="10">
+        <v>2014</v>
+      </c>
+      <c r="M11" s="10"/>
+      <c r="N11" s="10">
         <v>322.7</v>
       </c>
-      <c r="M11" s="10"/>
-      <c r="N11" s="10"/>
       <c r="O11" s="10"/>
       <c r="P11" s="10"/>
       <c r="Q11" s="10"/>
-      <c r="R11" s="10">
+      <c r="R11" s="10"/>
+      <c r="S11" s="10"/>
+      <c r="T11" s="10">
         <v>56693.7</v>
       </c>
-      <c r="S11" s="10">
+      <c r="U11" s="10">
         <v>24.51</v>
       </c>
-      <c r="T11" s="10"/>
-      <c r="U11" s="10" t="s">
+      <c r="V11" s="10"/>
+      <c r="W11" s="10" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A12" s="5" t="s">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A12" s="18" t="s">
+        <v>180</v>
+      </c>
+      <c r="B12" s="18">
+        <v>1</v>
+      </c>
+      <c r="C12" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="D12" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="E12" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="D12" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>162</v>
-      </c>
       <c r="F12" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="G12" s="5">
+        <v>115</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="I12" s="5">
         <v>2114</v>
       </c>
-      <c r="H12" s="5">
+      <c r="J12" s="5">
         <v>54054</v>
       </c>
-      <c r="I12" s="5">
+      <c r="K12" s="5">
         <v>1899</v>
       </c>
-      <c r="J12" s="5">
-        <v>2014</v>
-      </c>
-      <c r="K12" s="5">
+      <c r="L12" s="5">
+        <v>2014</v>
+      </c>
+      <c r="M12" s="5">
         <v>93</v>
       </c>
-      <c r="L12" s="5">
+      <c r="N12" s="5">
         <v>53.5</v>
       </c>
-      <c r="M12" s="5"/>
-      <c r="N12" s="5"/>
       <c r="O12" s="5"/>
       <c r="P12" s="5"/>
       <c r="Q12" s="5"/>
-      <c r="R12" s="5">
+      <c r="R12" s="5"/>
+      <c r="S12" s="5"/>
+      <c r="T12" s="5">
         <v>238.9</v>
       </c>
-      <c r="S12" s="5"/>
-      <c r="T12" s="5"/>
       <c r="U12" s="5"/>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A13" s="5" t="s">
+      <c r="V12" s="5"/>
+      <c r="W12" s="5"/>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A13" s="18" t="s">
+        <v>170</v>
+      </c>
+      <c r="B13" s="18">
+        <v>2</v>
+      </c>
+      <c r="C13" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="D13" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="E13" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="D13" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>162</v>
-      </c>
       <c r="F13" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="G13" s="5">
+        <v>115</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="I13" s="5">
         <v>2116</v>
       </c>
-      <c r="H13" s="5">
+      <c r="J13" s="5">
         <v>375000</v>
       </c>
-      <c r="I13" s="5">
+      <c r="K13" s="5">
         <v>1925</v>
       </c>
-      <c r="J13" s="5">
-        <v>2014</v>
-      </c>
-      <c r="K13" s="5">
+      <c r="L13" s="5">
+        <v>2014</v>
+      </c>
+      <c r="M13" s="5">
         <v>80</v>
       </c>
-      <c r="L13" s="5">
+      <c r="N13" s="5">
         <v>61.9</v>
       </c>
-      <c r="M13" s="5"/>
-      <c r="N13" s="5"/>
       <c r="O13" s="5"/>
       <c r="P13" s="5"/>
       <c r="Q13" s="5"/>
-      <c r="R13" s="5">
+      <c r="R13" s="5"/>
+      <c r="S13" s="5"/>
+      <c r="T13" s="5">
         <v>1665</v>
       </c>
-      <c r="S13" s="5">
+      <c r="U13" s="5">
         <v>32.21</v>
       </c>
-      <c r="T13" s="5"/>
-      <c r="U13" s="5"/>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A14" s="5" t="s">
+      <c r="V13" s="5"/>
+      <c r="W13" s="5"/>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A14" s="18" t="s">
+        <v>181</v>
+      </c>
+      <c r="B14" s="18">
+        <v>3</v>
+      </c>
+      <c r="C14" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="D14" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="E14" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="D14" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>162</v>
-      </c>
       <c r="F14" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="G14" s="5">
+        <v>115</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="I14" s="5">
         <v>2116</v>
       </c>
-      <c r="H14" s="5">
+      <c r="J14" s="5">
         <v>74214</v>
       </c>
-      <c r="I14" s="5">
+      <c r="K14" s="5">
         <v>1891</v>
       </c>
-      <c r="J14" s="5">
-        <v>2014</v>
-      </c>
-      <c r="K14" s="5">
+      <c r="L14" s="5">
+        <v>2014</v>
+      </c>
+      <c r="M14" s="5">
         <v>61</v>
       </c>
-      <c r="L14" s="5">
+      <c r="N14" s="5">
         <v>63.9</v>
       </c>
-      <c r="M14" s="5"/>
-      <c r="N14" s="5"/>
       <c r="O14" s="5"/>
       <c r="P14" s="5"/>
       <c r="Q14" s="5"/>
-      <c r="R14" s="5">
+      <c r="R14" s="5"/>
+      <c r="S14" s="5"/>
+      <c r="T14" s="5">
         <v>456.8</v>
       </c>
-      <c r="S14" s="5">
+      <c r="U14" s="5">
         <v>67.349999999999994</v>
       </c>
-      <c r="T14" s="5"/>
-      <c r="U14" s="5"/>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A15" s="5" t="s">
+      <c r="V14" s="5"/>
+      <c r="W14" s="5"/>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A15" s="18" t="s">
+        <v>182</v>
+      </c>
+      <c r="B15" s="18">
+        <v>4</v>
+      </c>
+      <c r="C15" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="D15" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="E15" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="D15" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>162</v>
-      </c>
       <c r="F15" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="G15" s="5">
+        <v>115</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="I15" s="5">
         <v>2116</v>
       </c>
-      <c r="H15" s="5">
+      <c r="J15" s="5">
         <v>976515</v>
       </c>
-      <c r="I15" s="5">
+      <c r="K15" s="5">
         <v>1982</v>
       </c>
-      <c r="J15" s="5">
-        <v>2014</v>
-      </c>
-      <c r="K15" s="5">
+      <c r="L15" s="5">
+        <v>2014</v>
+      </c>
+      <c r="M15" s="5">
         <v>74</v>
       </c>
-      <c r="L15" s="5">
+      <c r="N15" s="5">
         <v>70.5</v>
       </c>
-      <c r="M15" s="5"/>
-      <c r="N15" s="5"/>
       <c r="O15" s="5"/>
       <c r="P15" s="5"/>
       <c r="Q15" s="5"/>
-      <c r="R15" s="5">
+      <c r="R15" s="5"/>
+      <c r="S15" s="5"/>
+      <c r="T15" s="5">
         <v>4998.8999999999996</v>
       </c>
-      <c r="S15" s="5">
+      <c r="U15" s="5">
         <v>28.04</v>
       </c>
-      <c r="T15" s="5"/>
-      <c r="U15" s="5">
+      <c r="V15" s="5"/>
+      <c r="W15" s="5">
         <v>401067010</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A16" s="5" t="s">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A16" s="18" t="s">
+        <v>183</v>
+      </c>
+      <c r="B16" s="18">
+        <v>5</v>
+      </c>
+      <c r="C16" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="D16" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="E16" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="D16" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>162</v>
-      </c>
       <c r="F16" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="G16" s="5">
+        <v>115</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="I16" s="5">
         <v>2134</v>
       </c>
-      <c r="H16" s="5">
+      <c r="J16" s="5">
         <v>244038</v>
       </c>
-      <c r="I16" s="5">
+      <c r="K16" s="5">
         <v>1990</v>
       </c>
-      <c r="J16" s="5">
-        <v>2014</v>
-      </c>
-      <c r="K16" s="5"/>
       <c r="L16" s="5">
+        <v>2014</v>
+      </c>
+      <c r="M16" s="5"/>
+      <c r="N16" s="5">
         <v>71.2</v>
       </c>
-      <c r="M16" s="5"/>
-      <c r="N16" s="5"/>
       <c r="O16" s="5"/>
       <c r="P16" s="5"/>
       <c r="Q16" s="5"/>
-      <c r="R16" s="5">
+      <c r="R16" s="5"/>
+      <c r="S16" s="5"/>
+      <c r="T16" s="5">
         <v>1390.8</v>
       </c>
-      <c r="S16" s="5">
+      <c r="U16" s="5">
         <v>73.39</v>
       </c>
-      <c r="T16" s="5"/>
-      <c r="U16" s="5">
+      <c r="V16" s="5"/>
+      <c r="W16" s="5">
         <v>2200102000</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A17" s="5" t="s">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A17" s="18" t="s">
+        <v>184</v>
+      </c>
+      <c r="B17" s="18">
+        <v>6</v>
+      </c>
+      <c r="C17" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="D17" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="E17" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="D17" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>162</v>
-      </c>
       <c r="F17" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="G17" s="5">
+        <v>115</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="I17" s="5">
         <v>2114</v>
       </c>
-      <c r="H17" s="5">
+      <c r="J17" s="5">
         <v>224602</v>
       </c>
-      <c r="I17" s="5">
+      <c r="K17" s="5">
         <v>1968</v>
       </c>
-      <c r="J17" s="5">
-        <v>2014</v>
-      </c>
-      <c r="K17" s="5">
+      <c r="L17" s="5">
+        <v>2014</v>
+      </c>
+      <c r="M17" s="5">
         <v>79</v>
       </c>
-      <c r="L17" s="5">
+      <c r="N17" s="5">
         <v>72.8</v>
       </c>
-      <c r="M17" s="5"/>
-      <c r="N17" s="5"/>
       <c r="O17" s="5"/>
       <c r="P17" s="5"/>
       <c r="Q17" s="5"/>
-      <c r="R17" s="5">
+      <c r="R17" s="5"/>
+      <c r="S17" s="5"/>
+      <c r="T17" s="5">
         <v>1256.8</v>
       </c>
-      <c r="S17" s="5">
+      <c r="U17" s="5">
         <v>44.5</v>
       </c>
-      <c r="T17" s="5">
+      <c r="V17" s="5">
         <v>2013</v>
       </c>
-      <c r="U17" s="5">
+      <c r="W17" s="5">
         <v>300660002</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A18" s="5" t="s">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A18" s="18" t="s">
+        <v>185</v>
+      </c>
+      <c r="B18" s="18">
+        <v>7</v>
+      </c>
+      <c r="C18" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="D18" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="E18" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="D18" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>162</v>
-      </c>
       <c r="F18" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="G18" s="5">
+        <v>115</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="I18" s="5">
         <v>2116</v>
       </c>
-      <c r="H18" s="5">
+      <c r="J18" s="5">
         <v>887170</v>
       </c>
-      <c r="I18" s="5">
+      <c r="K18" s="5">
         <v>1980</v>
       </c>
-      <c r="J18" s="5">
-        <v>2014</v>
-      </c>
-      <c r="K18" s="5">
+      <c r="L18" s="5">
+        <v>2014</v>
+      </c>
+      <c r="M18" s="5">
         <v>35</v>
       </c>
-      <c r="L18" s="5">
+      <c r="N18" s="5">
         <v>73.7</v>
       </c>
-      <c r="M18" s="5"/>
-      <c r="N18" s="5"/>
       <c r="O18" s="5"/>
       <c r="P18" s="5"/>
       <c r="Q18" s="5"/>
-      <c r="R18" s="5">
+      <c r="R18" s="5"/>
+      <c r="S18" s="5"/>
+      <c r="T18" s="5">
         <v>4858.8</v>
       </c>
-      <c r="S18" s="5">
+      <c r="U18" s="5">
         <v>27.19</v>
       </c>
-      <c r="T18" s="5"/>
-      <c r="U18" s="5"/>
-    </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A19" s="5" t="s">
+      <c r="V18" s="5"/>
+      <c r="W18" s="5"/>
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A19" s="18" t="s">
+        <v>186</v>
+      </c>
+      <c r="B19" s="18">
+        <v>8</v>
+      </c>
+      <c r="C19" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="D19" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="E19" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="D19" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>162</v>
-      </c>
       <c r="F19" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="G19" s="5">
+        <v>115</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="I19" s="5">
         <v>2115</v>
       </c>
-      <c r="H19" s="5">
+      <c r="J19" s="5">
         <v>393752</v>
       </c>
-      <c r="I19" s="5">
+      <c r="K19" s="5">
         <v>2007</v>
       </c>
-      <c r="J19" s="5">
-        <v>2014</v>
-      </c>
-      <c r="K19" s="5">
+      <c r="L19" s="5">
+        <v>2014</v>
+      </c>
+      <c r="M19" s="5">
         <v>58</v>
       </c>
-      <c r="L19" s="5">
+      <c r="N19" s="5">
         <v>74.5</v>
       </c>
-      <c r="M19" s="5"/>
-      <c r="N19" s="5"/>
       <c r="O19" s="5"/>
       <c r="P19" s="5"/>
       <c r="Q19" s="5"/>
-      <c r="R19" s="5">
+      <c r="R19" s="5"/>
+      <c r="S19" s="5"/>
+      <c r="T19" s="5">
         <v>2458.5</v>
       </c>
-      <c r="S19" s="5">
+      <c r="U19" s="5">
         <v>46.86</v>
       </c>
-      <c r="T19" s="5"/>
-      <c r="U19" s="5">
+      <c r="V19" s="5"/>
+      <c r="W19" s="5">
         <v>401327000</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A20" s="5" t="s">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A20" s="18" t="s">
+        <v>187</v>
+      </c>
+      <c r="B20" s="18">
+        <v>9</v>
+      </c>
+      <c r="C20" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="D20" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="E20" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="D20" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>162</v>
-      </c>
       <c r="F20" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="G20" s="5">
+        <v>115</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="H20" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="I20" s="5">
         <v>2122</v>
       </c>
-      <c r="H20" s="5">
+      <c r="J20" s="5">
         <v>47094</v>
       </c>
-      <c r="I20" s="5">
+      <c r="K20" s="5">
         <v>1985</v>
       </c>
-      <c r="J20" s="5">
-        <v>2014</v>
-      </c>
-      <c r="K20" s="5">
+      <c r="L20" s="5">
+        <v>2014</v>
+      </c>
+      <c r="M20" s="5">
         <v>43</v>
       </c>
-      <c r="L20" s="5">
+      <c r="N20" s="5">
         <v>75.099999999999994</v>
       </c>
-      <c r="M20" s="5"/>
-      <c r="N20" s="5"/>
       <c r="O20" s="5"/>
       <c r="P20" s="5"/>
       <c r="Q20" s="5"/>
-      <c r="R20" s="5">
+      <c r="R20" s="5"/>
+      <c r="S20" s="5"/>
+      <c r="T20" s="5">
         <v>306</v>
       </c>
-      <c r="S20" s="5">
+      <c r="U20" s="5">
         <v>93.09</v>
       </c>
-      <c r="T20" s="5"/>
-      <c r="U20" s="5">
+      <c r="V20" s="5"/>
+      <c r="W20" s="5">
         <v>1602553000</v>
       </c>
     </row>
-    <row r="21" spans="1:21" s="11" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="12" t="s">
+    <row r="21" spans="1:23" s="11" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="18" t="s">
+        <v>188</v>
+      </c>
+      <c r="B21" s="18">
+        <v>10</v>
+      </c>
+      <c r="C21" s="12" t="s">
         <v>120</v>
       </c>
-      <c r="B21" s="12" t="s">
+      <c r="D21" s="12" t="s">
         <v>154</v>
       </c>
-      <c r="C21" s="12" t="s">
+      <c r="E21" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="D21" s="12" t="s">
-        <v>115</v>
-      </c>
-      <c r="E21" s="12" t="s">
-        <v>162</v>
-      </c>
       <c r="F21" s="12" t="s">
-        <v>163</v>
-      </c>
-      <c r="G21" s="12">
+        <v>115</v>
+      </c>
+      <c r="G21" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="H21" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="I21" s="12">
         <v>2110</v>
       </c>
-      <c r="H21" s="12">
+      <c r="J21" s="12">
         <v>280000</v>
       </c>
-      <c r="I21" s="12">
+      <c r="K21" s="12">
         <v>1922</v>
       </c>
-      <c r="J21" s="12">
-        <v>2014</v>
-      </c>
-      <c r="K21" s="12">
+      <c r="L21" s="12">
+        <v>2014</v>
+      </c>
+      <c r="M21" s="12">
         <v>41</v>
       </c>
-      <c r="L21" s="12">
+      <c r="N21" s="12">
         <v>75.5</v>
       </c>
-      <c r="M21" s="12"/>
-      <c r="N21" s="12"/>
       <c r="O21" s="12"/>
       <c r="P21" s="12"/>
       <c r="Q21" s="12"/>
-      <c r="R21" s="12">
+      <c r="R21" s="12"/>
+      <c r="S21" s="12"/>
+      <c r="T21" s="12">
         <v>274.89999999999998</v>
       </c>
-      <c r="S21" s="12"/>
-      <c r="T21" s="12"/>
-      <c r="U21" s="12">
+      <c r="U21" s="12"/>
+      <c r="V21" s="12"/>
+      <c r="W21" s="12">
         <v>304157000</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A22" s="4" t="s">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A22" s="18" t="s">
+        <v>189</v>
+      </c>
+      <c r="B22" s="18">
+        <v>1</v>
+      </c>
+      <c r="C22" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="D22" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="C22" s="4" t="s">
+      <c r="E22" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D22" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>162</v>
-      </c>
       <c r="F22" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="G22" s="4">
+        <v>115</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="I22" s="4">
         <v>2130</v>
       </c>
-      <c r="H22" s="4">
+      <c r="J22" s="4">
         <v>30000</v>
       </c>
-      <c r="I22" s="4">
+      <c r="K22" s="4">
         <v>1978</v>
       </c>
-      <c r="J22" s="4">
-        <v>2014</v>
-      </c>
-      <c r="K22" s="4">
+      <c r="L22" s="4">
+        <v>2014</v>
+      </c>
+      <c r="M22" s="4">
         <v>100</v>
       </c>
-      <c r="L22" s="4">
+      <c r="N22" s="4">
         <v>6.6</v>
       </c>
-      <c r="M22" s="4"/>
-      <c r="N22" s="4"/>
       <c r="O22" s="4"/>
       <c r="P22" s="4"/>
       <c r="Q22" s="4"/>
-      <c r="R22" s="4">
+      <c r="R22" s="4"/>
+      <c r="S22" s="4"/>
+      <c r="T22" s="4">
         <v>19</v>
       </c>
-      <c r="S22" s="4"/>
-      <c r="T22" s="4"/>
       <c r="U22" s="4"/>
-    </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A23" s="4" t="s">
+      <c r="V22" s="4"/>
+      <c r="W22" s="4"/>
+    </row>
+    <row r="23" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A23" s="18" t="s">
+        <v>190</v>
+      </c>
+      <c r="B23" s="18">
+        <v>2</v>
+      </c>
+      <c r="C23" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="D23" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="E23" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="D23" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="E23" s="4" t="s">
-        <v>162</v>
-      </c>
       <c r="F23" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="G23" s="4">
+        <v>115</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="H23" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="I23" s="4">
         <v>2113</v>
       </c>
-      <c r="H23" s="4">
+      <c r="J23" s="4">
         <v>58645</v>
       </c>
-      <c r="I23" s="4">
+      <c r="K23" s="4">
         <v>1899</v>
       </c>
-      <c r="J23" s="4">
-        <v>2014</v>
-      </c>
-      <c r="K23" s="4">
+      <c r="L23" s="4">
+        <v>2014</v>
+      </c>
+      <c r="M23" s="4">
         <v>100</v>
       </c>
-      <c r="L23" s="4">
+      <c r="N23" s="4">
         <v>24.1</v>
       </c>
-      <c r="M23" s="4"/>
-      <c r="N23" s="4"/>
       <c r="O23" s="4"/>
       <c r="P23" s="4"/>
       <c r="Q23" s="4"/>
-      <c r="R23" s="4">
+      <c r="R23" s="4"/>
+      <c r="S23" s="4"/>
+      <c r="T23" s="4">
         <v>87.7</v>
       </c>
-      <c r="S23" s="4"/>
-      <c r="T23" s="4"/>
       <c r="U23" s="4"/>
-    </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A24" s="4" t="s">
+      <c r="V23" s="4"/>
+      <c r="W23" s="4"/>
+    </row>
+    <row r="24" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A24" s="18" t="s">
+        <v>191</v>
+      </c>
+      <c r="B24" s="18">
+        <v>3</v>
+      </c>
+      <c r="C24" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="D24" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="C24" s="4" t="s">
+      <c r="E24" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D24" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>162</v>
-      </c>
       <c r="F24" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="G24" s="4">
+        <v>115</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="H24" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="I24" s="4">
         <v>2131</v>
       </c>
-      <c r="H24" s="4">
+      <c r="J24" s="4">
         <v>49105</v>
       </c>
-      <c r="I24" s="4">
+      <c r="K24" s="4">
         <v>1931</v>
       </c>
-      <c r="J24" s="4">
-        <v>2014</v>
-      </c>
-      <c r="K24" s="4">
+      <c r="L24" s="4">
+        <v>2014</v>
+      </c>
+      <c r="M24" s="4">
         <v>100</v>
       </c>
-      <c r="L24" s="4">
+      <c r="N24" s="4">
         <v>25.7</v>
       </c>
-      <c r="M24" s="4"/>
-      <c r="N24" s="4"/>
       <c r="O24" s="4"/>
       <c r="P24" s="4"/>
       <c r="Q24" s="4"/>
-      <c r="R24" s="4">
+      <c r="R24" s="4"/>
+      <c r="S24" s="4"/>
+      <c r="T24" s="4">
         <v>87.3</v>
       </c>
-      <c r="S24" s="4">
+      <c r="U24" s="4">
         <v>0.81</v>
       </c>
-      <c r="T24" s="4"/>
-      <c r="U24" s="4"/>
-    </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A25" s="4" t="s">
+      <c r="V24" s="4"/>
+      <c r="W24" s="4"/>
+    </row>
+    <row r="25" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A25" s="18" t="s">
+        <v>192</v>
+      </c>
+      <c r="B25" s="18">
+        <v>4</v>
+      </c>
+      <c r="C25" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B25" s="4" t="s">
+      <c r="D25" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="C25" s="4" t="s">
+      <c r="E25" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D25" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="E25" s="4" t="s">
-        <v>162</v>
-      </c>
       <c r="F25" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="G25" s="4">
+        <v>115</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="H25" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="I25" s="4">
         <v>2126</v>
       </c>
-      <c r="H25" s="4">
+      <c r="J25" s="4">
         <v>171035</v>
       </c>
-      <c r="I25" s="4">
+      <c r="K25" s="4">
         <v>1977</v>
       </c>
-      <c r="J25" s="4">
-        <v>2014</v>
-      </c>
-      <c r="K25" s="4">
+      <c r="L25" s="4">
+        <v>2014</v>
+      </c>
+      <c r="M25" s="4">
         <v>100</v>
       </c>
-      <c r="L25" s="4">
+      <c r="N25" s="4">
         <v>30</v>
       </c>
-      <c r="M25" s="4"/>
-      <c r="N25" s="4"/>
       <c r="O25" s="4"/>
       <c r="P25" s="4"/>
       <c r="Q25" s="4"/>
-      <c r="R25" s="4">
+      <c r="R25" s="4"/>
+      <c r="S25" s="4"/>
+      <c r="T25" s="4">
         <v>352.7</v>
       </c>
-      <c r="S25" s="4">
+      <c r="U25" s="4">
         <v>0.5</v>
       </c>
-      <c r="T25" s="4"/>
-      <c r="U25" s="4"/>
-    </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A26" s="4" t="s">
+      <c r="V25" s="4"/>
+      <c r="W25" s="4"/>
+    </row>
+    <row r="26" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A26" s="18" t="s">
+        <v>193</v>
+      </c>
+      <c r="B26" s="18">
         <v>5</v>
       </c>
-      <c r="B26" s="4" t="s">
+      <c r="C26" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D26" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="C26" s="4" t="s">
+      <c r="E26" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D26" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="E26" s="4" t="s">
-        <v>162</v>
-      </c>
       <c r="F26" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="G26" s="4">
+        <v>115</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="H26" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="I26" s="4">
         <v>2120</v>
       </c>
-      <c r="H26" s="4">
+      <c r="J26" s="4">
         <v>64400</v>
       </c>
-      <c r="I26" s="4">
+      <c r="K26" s="4">
         <v>1925</v>
       </c>
-      <c r="J26" s="4">
-        <v>2014</v>
-      </c>
-      <c r="K26" s="4">
+      <c r="L26" s="4">
+        <v>2014</v>
+      </c>
+      <c r="M26" s="4">
         <v>100</v>
       </c>
-      <c r="L26" s="4">
+      <c r="N26" s="4">
         <v>30.4</v>
       </c>
-      <c r="M26" s="4"/>
-      <c r="N26" s="4"/>
       <c r="O26" s="4"/>
       <c r="P26" s="4"/>
       <c r="Q26" s="4"/>
-      <c r="R26" s="4">
+      <c r="R26" s="4"/>
+      <c r="S26" s="4"/>
+      <c r="T26" s="4">
         <v>109.8</v>
       </c>
-      <c r="S26" s="4">
+      <c r="U26" s="4">
         <v>0.28999999999999998</v>
       </c>
-      <c r="T26" s="4"/>
-      <c r="U26" s="4"/>
-    </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A27" s="4" t="s">
+      <c r="V26" s="4"/>
+      <c r="W26" s="4"/>
+    </row>
+    <row r="27" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A27" s="18" t="s">
+        <v>194</v>
+      </c>
+      <c r="B27" s="18">
+        <v>6</v>
+      </c>
+      <c r="C27" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B27" s="4" t="s">
+      <c r="D27" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="C27" s="4" t="s">
+      <c r="E27" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D27" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="E27" s="4" t="s">
-        <v>162</v>
-      </c>
       <c r="F27" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="G27" s="4">
+        <v>115</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="H27" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="I27" s="4">
         <v>2128</v>
       </c>
-      <c r="H27" s="4">
+      <c r="J27" s="4">
         <v>36190</v>
       </c>
-      <c r="I27" s="4">
+      <c r="K27" s="4">
         <v>1926</v>
       </c>
-      <c r="J27" s="4">
-        <v>2014</v>
-      </c>
-      <c r="K27" s="4">
+      <c r="L27" s="4">
+        <v>2014</v>
+      </c>
+      <c r="M27" s="4">
         <v>100</v>
       </c>
-      <c r="L27" s="4">
+      <c r="N27" s="4">
         <v>36.5</v>
       </c>
-      <c r="M27" s="4"/>
-      <c r="N27" s="4"/>
       <c r="O27" s="4"/>
       <c r="P27" s="4"/>
       <c r="Q27" s="4"/>
-      <c r="R27" s="4">
+      <c r="R27" s="4"/>
+      <c r="S27" s="4"/>
+      <c r="T27" s="4">
         <v>83.9</v>
       </c>
-      <c r="S27" s="4">
+      <c r="U27" s="4">
         <v>0.92</v>
       </c>
-      <c r="T27" s="4"/>
-      <c r="U27" s="4"/>
-    </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A28" s="4" t="s">
+      <c r="V27" s="4"/>
+      <c r="W27" s="4"/>
+    </row>
+    <row r="28" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A28" s="18" t="s">
+        <v>195</v>
+      </c>
+      <c r="B28" s="18">
+        <v>7</v>
+      </c>
+      <c r="C28" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B28" s="4" t="s">
+      <c r="D28" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="C28" s="4" t="s">
+      <c r="E28" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D28" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="E28" s="4" t="s">
-        <v>162</v>
-      </c>
       <c r="F28" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="G28" s="4">
+        <v>115</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="H28" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="I28" s="4">
         <v>2119</v>
       </c>
-      <c r="H28" s="4">
+      <c r="J28" s="4">
         <v>112128</v>
       </c>
-      <c r="I28" s="4">
+      <c r="K28" s="4">
         <v>1913</v>
       </c>
-      <c r="J28" s="4">
-        <v>2014</v>
-      </c>
-      <c r="K28" s="4">
+      <c r="L28" s="4">
+        <v>2014</v>
+      </c>
+      <c r="M28" s="4">
         <v>100</v>
       </c>
-      <c r="L28" s="4">
+      <c r="N28" s="4">
         <v>36.9</v>
       </c>
-      <c r="M28" s="4"/>
-      <c r="N28" s="4"/>
       <c r="O28" s="4"/>
       <c r="P28" s="4"/>
       <c r="Q28" s="4"/>
-      <c r="R28" s="4">
+      <c r="R28" s="4"/>
+      <c r="S28" s="4"/>
+      <c r="T28" s="4">
         <v>248.5</v>
       </c>
-      <c r="S28" s="4">
+      <c r="U28" s="4">
         <v>0.35</v>
       </c>
-      <c r="T28" s="4"/>
-      <c r="U28" s="4"/>
-    </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A29" s="4" t="s">
+      <c r="V28" s="4"/>
+      <c r="W28" s="4"/>
+    </row>
+    <row r="29" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A29" s="18" t="s">
+        <v>196</v>
+      </c>
+      <c r="B29" s="18">
+        <v>8</v>
+      </c>
+      <c r="C29" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B29" s="4" t="s">
+      <c r="D29" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="C29" s="4" t="s">
+      <c r="E29" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D29" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="E29" s="4" t="s">
-        <v>162</v>
-      </c>
       <c r="F29" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="G29" s="4">
+        <v>115</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="H29" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="I29" s="4">
         <v>2128</v>
       </c>
-      <c r="H29" s="4">
+      <c r="J29" s="4">
         <v>79082</v>
       </c>
-      <c r="I29" s="4">
+      <c r="K29" s="4">
         <v>1926</v>
       </c>
-      <c r="J29" s="4">
-        <v>2014</v>
-      </c>
-      <c r="K29" s="4">
+      <c r="L29" s="4">
+        <v>2014</v>
+      </c>
+      <c r="M29" s="4">
         <v>97</v>
       </c>
-      <c r="L29" s="4">
+      <c r="N29" s="4">
         <v>39.1</v>
       </c>
-      <c r="M29" s="4"/>
-      <c r="N29" s="4"/>
       <c r="O29" s="4"/>
       <c r="P29" s="4"/>
       <c r="Q29" s="4"/>
-      <c r="R29" s="4">
+      <c r="R29" s="4"/>
+      <c r="S29" s="4"/>
+      <c r="T29" s="4">
         <v>210.8</v>
       </c>
-      <c r="S29" s="4">
+      <c r="U29" s="4">
         <v>1.05</v>
       </c>
-      <c r="T29" s="4"/>
-      <c r="U29" s="4"/>
-    </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A30" s="4" t="s">
+      <c r="V29" s="4"/>
+      <c r="W29" s="4"/>
+    </row>
+    <row r="30" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A30" s="18" t="s">
+        <v>197</v>
+      </c>
+      <c r="B30" s="18">
+        <v>9</v>
+      </c>
+      <c r="C30" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B30" s="4" t="s">
+      <c r="D30" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="C30" s="4" t="s">
+      <c r="E30" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D30" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="E30" s="4" t="s">
-        <v>162</v>
-      </c>
       <c r="F30" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="G30" s="4">
+        <v>115</v>
+      </c>
+      <c r="G30" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="H30" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="I30" s="4">
         <v>2111</v>
       </c>
-      <c r="H30" s="4">
+      <c r="J30" s="4">
         <v>16960</v>
       </c>
-      <c r="I30" s="4">
+      <c r="K30" s="4">
         <v>2000</v>
       </c>
-      <c r="J30" s="4">
-        <v>2014</v>
-      </c>
-      <c r="K30" s="4">
+      <c r="L30" s="4">
+        <v>2014</v>
+      </c>
+      <c r="M30" s="4">
         <v>96</v>
       </c>
-      <c r="L30" s="4">
+      <c r="N30" s="4">
         <v>39.9</v>
       </c>
-      <c r="M30" s="4"/>
-      <c r="N30" s="4"/>
       <c r="O30" s="4"/>
       <c r="P30" s="4"/>
       <c r="Q30" s="4"/>
-      <c r="R30" s="4">
+      <c r="R30" s="4"/>
+      <c r="S30" s="4"/>
+      <c r="T30" s="4">
         <v>51.4</v>
       </c>
-      <c r="S30" s="4">
+      <c r="U30" s="4">
         <v>1.19</v>
       </c>
-      <c r="T30" s="4"/>
-      <c r="U30" s="4"/>
-    </row>
-    <row r="31" spans="1:21" s="11" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A31" s="13" t="s">
+      <c r="V30" s="4"/>
+      <c r="W30" s="4"/>
+    </row>
+    <row r="31" spans="1:23" s="11" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="18" t="s">
+        <v>198</v>
+      </c>
+      <c r="B31" s="18">
+        <v>10</v>
+      </c>
+      <c r="C31" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B31" s="13" t="s">
+      <c r="D31" s="13" t="s">
         <v>134</v>
       </c>
-      <c r="C31" s="13" t="s">
+      <c r="E31" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="D31" s="13" t="s">
-        <v>115</v>
-      </c>
-      <c r="E31" s="13" t="s">
-        <v>162</v>
-      </c>
       <c r="F31" s="13" t="s">
-        <v>163</v>
-      </c>
-      <c r="G31" s="13">
+        <v>115</v>
+      </c>
+      <c r="G31" s="13" t="s">
+        <v>162</v>
+      </c>
+      <c r="H31" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="I31" s="13">
         <v>2124</v>
       </c>
-      <c r="H31" s="13">
+      <c r="J31" s="13">
         <v>32706</v>
       </c>
-      <c r="I31" s="13">
+      <c r="K31" s="13">
         <v>1919</v>
       </c>
-      <c r="J31" s="13">
-        <v>2014</v>
-      </c>
-      <c r="K31" s="13">
+      <c r="L31" s="13">
+        <v>2014</v>
+      </c>
+      <c r="M31" s="13">
         <v>99</v>
       </c>
-      <c r="L31" s="13">
+      <c r="N31" s="13">
         <v>40.200000000000003</v>
       </c>
-      <c r="M31" s="13"/>
-      <c r="N31" s="13"/>
       <c r="O31" s="13"/>
       <c r="P31" s="13"/>
       <c r="Q31" s="13"/>
-      <c r="R31" s="13">
+      <c r="R31" s="13"/>
+      <c r="S31" s="13"/>
+      <c r="T31" s="13">
         <v>81.8</v>
       </c>
-      <c r="S31" s="13">
+      <c r="U31" s="13">
         <v>0.5</v>
       </c>
-      <c r="T31" s="13"/>
-      <c r="U31" s="13"/>
-    </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A32" s="6" t="s">
+      <c r="V31" s="13"/>
+      <c r="W31" s="13"/>
+    </row>
+    <row r="32" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A32" s="18" t="s">
+        <v>199</v>
+      </c>
+      <c r="B32" s="18">
+        <v>1</v>
+      </c>
+      <c r="C32" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B32" s="6" t="s">
+      <c r="D32" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="C32" s="6" t="s">
+      <c r="E32" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="D32" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="E32" s="6" t="s">
-        <v>162</v>
-      </c>
       <c r="F32" s="6" t="s">
-        <v>163</v>
-      </c>
-      <c r="G32" s="6">
+        <v>115</v>
+      </c>
+      <c r="G32" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="H32" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="I32" s="6">
         <v>2026</v>
       </c>
-      <c r="H32" s="6">
+      <c r="J32" s="6">
         <v>95000</v>
       </c>
-      <c r="I32" s="6">
+      <c r="K32" s="6">
         <v>2009</v>
       </c>
-      <c r="J32" s="6">
-        <v>2014</v>
-      </c>
-      <c r="K32" s="6"/>
       <c r="L32" s="6">
+        <v>2014</v>
+      </c>
+      <c r="M32" s="6"/>
+      <c r="N32" s="6">
         <v>98.3</v>
       </c>
-      <c r="M32" s="6"/>
-      <c r="N32" s="6"/>
       <c r="O32" s="6"/>
       <c r="P32" s="6"/>
       <c r="Q32" s="6"/>
-      <c r="R32" s="6">
+      <c r="R32" s="6"/>
+      <c r="S32" s="6"/>
+      <c r="T32" s="6">
         <v>903.5</v>
       </c>
-      <c r="S32" s="6">
+      <c r="U32" s="6">
         <v>18.34</v>
       </c>
-      <c r="T32" s="6"/>
-      <c r="U32" s="6">
+      <c r="V32" s="6"/>
+      <c r="W32" s="6">
         <v>1405198175</v>
       </c>
     </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A33" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="B33" s="6" t="s">
-        <v>131</v>
+    <row r="33" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A33" s="18" t="s">
+        <v>200</v>
+      </c>
+      <c r="B33" s="18">
+        <v>2</v>
       </c>
       <c r="C33" s="6" t="s">
         <v>48</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>115</v>
+        <v>131</v>
       </c>
       <c r="E33" s="6" t="s">
-        <v>162</v>
+        <v>48</v>
       </c>
       <c r="F33" s="6" t="s">
-        <v>163</v>
-      </c>
-      <c r="G33" s="6">
+        <v>115</v>
+      </c>
+      <c r="G33" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="H33" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="I33" s="6">
         <v>2215</v>
       </c>
-      <c r="H33" s="6">
+      <c r="J33" s="6">
         <v>61754</v>
       </c>
-      <c r="I33" s="6">
+      <c r="K33" s="6">
         <v>1905</v>
       </c>
-      <c r="J33" s="6">
-        <v>2014</v>
-      </c>
-      <c r="K33" s="6"/>
       <c r="L33" s="6">
+        <v>2014</v>
+      </c>
+      <c r="M33" s="6"/>
+      <c r="N33" s="6">
         <v>155.9</v>
       </c>
-      <c r="M33" s="6"/>
-      <c r="N33" s="6"/>
       <c r="O33" s="6"/>
       <c r="P33" s="6"/>
       <c r="Q33" s="6"/>
-      <c r="R33" s="6">
+      <c r="R33" s="6"/>
+      <c r="S33" s="6"/>
+      <c r="T33" s="6">
         <v>711.6</v>
       </c>
-      <c r="S33" s="6">
+      <c r="U33" s="6">
         <v>22.91</v>
       </c>
-      <c r="T33" s="6"/>
-      <c r="U33" s="6">
+      <c r="V33" s="6"/>
+      <c r="W33" s="6">
         <v>2100295000</v>
       </c>
     </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A34" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="B34" s="6" t="s">
-        <v>131</v>
+    <row r="34" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A34" s="18" t="s">
+        <v>202</v>
+      </c>
+      <c r="B34" s="18">
+        <v>3</v>
       </c>
       <c r="C34" s="6" t="s">
         <v>43</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>115</v>
+        <v>131</v>
       </c>
       <c r="E34" s="6" t="s">
-        <v>162</v>
+        <v>43</v>
       </c>
       <c r="F34" s="6" t="s">
-        <v>163</v>
-      </c>
-      <c r="G34" s="6">
+        <v>115</v>
+      </c>
+      <c r="G34" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="H34" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="I34" s="6">
         <v>2215</v>
       </c>
-      <c r="H34" s="6">
+      <c r="J34" s="6">
         <v>149118</v>
       </c>
-      <c r="I34" s="6">
+      <c r="K34" s="6">
         <v>1913</v>
       </c>
-      <c r="J34" s="6">
-        <v>2014</v>
-      </c>
-      <c r="K34" s="6"/>
       <c r="L34" s="6">
+        <v>2014</v>
+      </c>
+      <c r="M34" s="6"/>
+      <c r="N34" s="6">
         <v>166.9</v>
       </c>
-      <c r="M34" s="6"/>
-      <c r="N34" s="6"/>
       <c r="O34" s="6"/>
       <c r="P34" s="6"/>
       <c r="Q34" s="6"/>
-      <c r="R34" s="6">
+      <c r="R34" s="6"/>
+      <c r="S34" s="6"/>
+      <c r="T34" s="6">
         <v>1865.6</v>
       </c>
-      <c r="S34" s="6">
+      <c r="U34" s="6">
         <v>12.58</v>
       </c>
-      <c r="T34" s="6"/>
-      <c r="U34" s="6">
+      <c r="V34" s="6"/>
+      <c r="W34" s="6">
         <v>2100350000</v>
       </c>
     </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A35" s="6" t="s">
+    <row r="35" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A35" s="18" t="s">
+        <v>203</v>
+      </c>
+      <c r="B35" s="18">
+        <v>4</v>
+      </c>
+      <c r="C35" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="B35" s="6" t="s">
+      <c r="D35" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="C35" s="6" t="s">
+      <c r="E35" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="D35" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="E35" s="6" t="s">
-        <v>162</v>
-      </c>
       <c r="F35" s="6" t="s">
-        <v>163</v>
-      </c>
-      <c r="G35" s="6">
+        <v>115</v>
+      </c>
+      <c r="G35" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="H35" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="I35" s="6">
         <v>2210</v>
       </c>
-      <c r="H35" s="6">
+      <c r="J35" s="6">
         <v>516693</v>
       </c>
-      <c r="I35" s="6">
+      <c r="K35" s="6">
         <v>2013</v>
       </c>
-      <c r="J35" s="6">
-        <v>2014</v>
-      </c>
-      <c r="K35" s="6"/>
       <c r="L35" s="6">
+        <v>2014</v>
+      </c>
+      <c r="M35" s="6"/>
+      <c r="N35" s="6">
         <v>198.8</v>
       </c>
-      <c r="M35" s="6"/>
-      <c r="N35" s="6"/>
       <c r="O35" s="6"/>
       <c r="P35" s="6"/>
       <c r="Q35" s="6"/>
-      <c r="R35" s="6">
+      <c r="R35" s="6"/>
+      <c r="S35" s="6"/>
+      <c r="T35" s="6">
         <v>7956.7</v>
       </c>
-      <c r="S35" s="6">
+      <c r="U35" s="6">
         <v>16.16</v>
       </c>
-      <c r="T35" s="6"/>
-      <c r="U35" s="6">
+      <c r="V35" s="6"/>
+      <c r="W35" s="6">
         <v>602671017</v>
       </c>
     </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A36" s="6" t="s">
+    <row r="36" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A36" s="18" t="s">
+        <v>204</v>
+      </c>
+      <c r="B36" s="18">
+        <v>5</v>
+      </c>
+      <c r="C36" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="B36" s="6" t="s">
+      <c r="D36" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="C36" s="6" t="s">
+      <c r="E36" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="D36" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="E36" s="6" t="s">
-        <v>162</v>
-      </c>
       <c r="F36" s="6" t="s">
-        <v>163</v>
-      </c>
-      <c r="G36" s="6">
+        <v>115</v>
+      </c>
+      <c r="G36" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="H36" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="I36" s="6">
         <v>2115</v>
       </c>
-      <c r="H36" s="6">
+      <c r="J36" s="6">
         <v>133645</v>
       </c>
-      <c r="I36" s="6">
+      <c r="K36" s="6">
         <v>1905</v>
       </c>
-      <c r="J36" s="6">
-        <v>2014</v>
-      </c>
-      <c r="K36" s="6"/>
       <c r="L36" s="6">
+        <v>2014</v>
+      </c>
+      <c r="M36" s="6"/>
+      <c r="N36" s="6">
         <v>219</v>
       </c>
-      <c r="M36" s="6"/>
-      <c r="N36" s="6"/>
       <c r="O36" s="6"/>
       <c r="P36" s="6"/>
       <c r="Q36" s="6"/>
-      <c r="R36" s="6">
+      <c r="R36" s="6"/>
+      <c r="S36" s="6"/>
+      <c r="T36" s="6">
         <v>2084.9</v>
       </c>
-      <c r="S36" s="6">
+      <c r="U36" s="6">
         <v>64.86</v>
       </c>
-      <c r="T36" s="6"/>
-      <c r="U36" s="6">
+      <c r="V36" s="6"/>
+      <c r="W36" s="6">
         <v>401882000</v>
       </c>
     </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A37" s="6" t="s">
+    <row r="37" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A37" s="18" t="s">
+        <v>201</v>
+      </c>
+      <c r="B37" s="18">
+        <v>6</v>
+      </c>
+      <c r="C37" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="B37" s="6" t="s">
+      <c r="D37" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="C37" s="6" t="s">
+      <c r="E37" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="D37" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="E37" s="6" t="s">
-        <v>162</v>
-      </c>
       <c r="F37" s="6" t="s">
-        <v>163</v>
-      </c>
-      <c r="G37" s="6">
+        <v>115</v>
+      </c>
+      <c r="G37" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="H37" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="I37" s="6">
         <v>2210</v>
       </c>
-      <c r="H37" s="6">
+      <c r="J37" s="6">
         <v>685239</v>
       </c>
-      <c r="I37" s="6">
+      <c r="K37" s="6">
         <v>2013</v>
       </c>
-      <c r="J37" s="6">
-        <v>2014</v>
-      </c>
-      <c r="K37" s="6"/>
       <c r="L37" s="6">
+        <v>2014</v>
+      </c>
+      <c r="M37" s="6"/>
+      <c r="N37" s="6">
         <v>220</v>
       </c>
-      <c r="M37" s="6"/>
-      <c r="N37" s="6"/>
       <c r="O37" s="6"/>
       <c r="P37" s="6"/>
       <c r="Q37" s="6"/>
-      <c r="R37" s="6">
+      <c r="R37" s="6"/>
+      <c r="S37" s="6"/>
+      <c r="T37" s="6">
         <v>9677.2000000000007</v>
       </c>
-      <c r="S37" s="6">
+      <c r="U37" s="6">
         <v>18.25</v>
       </c>
-      <c r="T37" s="6"/>
-      <c r="U37" s="6">
+      <c r="V37" s="6"/>
+      <c r="W37" s="6">
         <v>602671015</v>
       </c>
     </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A38" s="6" t="s">
+    <row r="38" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A38" s="18" t="s">
+        <v>205</v>
+      </c>
+      <c r="B38" s="18">
+        <v>7</v>
+      </c>
+      <c r="C38" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="B38" s="6" t="s">
+      <c r="D38" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="C38" s="6" t="s">
+      <c r="E38" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="D38" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="E38" s="6" t="s">
-        <v>162</v>
-      </c>
       <c r="F38" s="6" t="s">
-        <v>163</v>
-      </c>
-      <c r="G38" s="6">
+        <v>115</v>
+      </c>
+      <c r="G38" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="H38" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="I38" s="6">
         <v>2118</v>
       </c>
-      <c r="H38" s="6">
+      <c r="J38" s="6">
         <v>105462</v>
       </c>
-      <c r="I38" s="6">
+      <c r="K38" s="6">
         <v>1895</v>
       </c>
-      <c r="J38" s="6">
-        <v>2014</v>
-      </c>
-      <c r="K38" s="6"/>
       <c r="L38" s="6">
+        <v>2014</v>
+      </c>
+      <c r="M38" s="6"/>
+      <c r="N38" s="6">
         <v>222.6</v>
       </c>
-      <c r="M38" s="6"/>
-      <c r="N38" s="6"/>
       <c r="O38" s="6"/>
       <c r="P38" s="6"/>
       <c r="Q38" s="6"/>
-      <c r="R38" s="6">
+      <c r="R38" s="6"/>
+      <c r="S38" s="6"/>
+      <c r="T38" s="6">
         <v>1806.6</v>
       </c>
-      <c r="S38" s="6">
+      <c r="U38" s="6">
         <v>3.15</v>
       </c>
-      <c r="T38" s="6"/>
-      <c r="U38" s="6" t="s">
+      <c r="V38" s="6"/>
+      <c r="W38" s="6" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A39" s="6" t="s">
+    <row r="39" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A39" s="18" t="s">
+        <v>206</v>
+      </c>
+      <c r="B39" s="18">
+        <v>8</v>
+      </c>
+      <c r="C39" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="B39" s="6" t="s">
+      <c r="D39" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="C39" s="6" t="s">
+      <c r="E39" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="D39" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="E39" s="6" t="s">
-        <v>162</v>
-      </c>
       <c r="F39" s="6" t="s">
-        <v>163</v>
-      </c>
-      <c r="G39" s="6">
+        <v>115</v>
+      </c>
+      <c r="G39" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="H39" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="I39" s="6">
         <v>2115</v>
       </c>
-      <c r="H39" s="6">
+      <c r="J39" s="6">
         <v>164789</v>
       </c>
-      <c r="I39" s="6">
+      <c r="K39" s="6">
         <v>1960</v>
       </c>
-      <c r="J39" s="6">
-        <v>2014</v>
-      </c>
-      <c r="K39" s="6"/>
       <c r="L39" s="6">
+        <v>2014</v>
+      </c>
+      <c r="M39" s="6"/>
+      <c r="N39" s="6">
         <v>230.3</v>
       </c>
-      <c r="M39" s="6"/>
-      <c r="N39" s="6"/>
       <c r="O39" s="6"/>
       <c r="P39" s="6"/>
       <c r="Q39" s="6"/>
-      <c r="R39" s="6">
+      <c r="R39" s="6"/>
+      <c r="S39" s="6"/>
+      <c r="T39" s="6">
         <v>2720.2</v>
       </c>
-      <c r="S39" s="6">
+      <c r="U39" s="6">
         <v>7.92</v>
       </c>
-      <c r="T39" s="6"/>
-      <c r="U39" s="6">
+      <c r="V39" s="6"/>
+      <c r="W39" s="6">
         <v>401880000</v>
       </c>
     </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A40" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="B40" s="6" t="s">
-        <v>131</v>
+    <row r="40" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A40" s="18" t="s">
+        <v>207</v>
+      </c>
+      <c r="B40" s="18">
+        <v>9</v>
       </c>
       <c r="C40" s="6" t="s">
         <v>49</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>115</v>
+        <v>131</v>
       </c>
       <c r="E40" s="6" t="s">
-        <v>162</v>
+        <v>49</v>
       </c>
       <c r="F40" s="6" t="s">
-        <v>163</v>
-      </c>
-      <c r="G40" s="6">
+        <v>115</v>
+      </c>
+      <c r="G40" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="H40" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="I40" s="6">
         <v>2215</v>
       </c>
-      <c r="H40" s="6">
+      <c r="J40" s="6">
         <v>36563</v>
       </c>
-      <c r="I40" s="6">
+      <c r="K40" s="6">
         <v>1917</v>
       </c>
-      <c r="J40" s="6">
-        <v>2014</v>
-      </c>
-      <c r="K40" s="6"/>
       <c r="L40" s="6">
+        <v>2014</v>
+      </c>
+      <c r="M40" s="6"/>
+      <c r="N40" s="6">
         <v>236.1</v>
       </c>
-      <c r="M40" s="6"/>
-      <c r="N40" s="6"/>
       <c r="O40" s="6"/>
       <c r="P40" s="6"/>
       <c r="Q40" s="6"/>
-      <c r="R40" s="6">
+      <c r="R40" s="6"/>
+      <c r="S40" s="6"/>
+      <c r="T40" s="6">
         <v>640.1</v>
       </c>
-      <c r="S40" s="6">
+      <c r="U40" s="6">
         <v>73.239999999999995</v>
       </c>
-      <c r="T40" s="6"/>
-      <c r="U40" s="6"/>
-    </row>
-    <row r="41" spans="1:21" s="11" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A41" s="14" t="s">
+      <c r="V40" s="6"/>
+      <c r="W40" s="6"/>
+    </row>
+    <row r="41" spans="1:23" s="11" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="18" t="s">
+        <v>208</v>
+      </c>
+      <c r="B41" s="18">
+        <v>10</v>
+      </c>
+      <c r="C41" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="B41" s="14" t="s">
+      <c r="D41" s="14" t="s">
         <v>131</v>
       </c>
-      <c r="C41" s="14" t="s">
+      <c r="E41" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="D41" s="14" t="s">
-        <v>115</v>
-      </c>
-      <c r="E41" s="14" t="s">
-        <v>162</v>
-      </c>
       <c r="F41" s="14" t="s">
-        <v>163</v>
-      </c>
-      <c r="G41" s="14">
+        <v>115</v>
+      </c>
+      <c r="G41" s="14" t="s">
+        <v>162</v>
+      </c>
+      <c r="H41" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="I41" s="14">
         <v>2115</v>
       </c>
-      <c r="H41" s="14">
+      <c r="J41" s="14">
         <v>133445</v>
       </c>
-      <c r="I41" s="14">
+      <c r="K41" s="14">
         <v>1905</v>
       </c>
-      <c r="J41" s="14">
-        <v>2014</v>
-      </c>
-      <c r="K41" s="14"/>
       <c r="L41" s="14">
+        <v>2014</v>
+      </c>
+      <c r="M41" s="14"/>
+      <c r="N41" s="14">
         <v>246.5</v>
       </c>
-      <c r="M41" s="14"/>
-      <c r="N41" s="14"/>
       <c r="O41" s="14"/>
       <c r="P41" s="14"/>
       <c r="Q41" s="14"/>
-      <c r="R41" s="14">
+      <c r="R41" s="14"/>
+      <c r="S41" s="14"/>
+      <c r="T41" s="14">
         <v>2365.6999999999998</v>
       </c>
-      <c r="S41" s="14">
+      <c r="U41" s="14">
         <v>43.25</v>
       </c>
-      <c r="T41" s="14"/>
-      <c r="U41" s="14">
+      <c r="V41" s="14"/>
+      <c r="W41" s="14">
         <v>401882000</v>
       </c>
     </row>
-    <row r="42" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="B42" s="7" t="s">
-        <v>133</v>
+    <row r="42" spans="1:23" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="18" t="s">
+        <v>209</v>
+      </c>
+      <c r="B42" s="18">
+        <v>1</v>
       </c>
       <c r="C42" s="7" t="s">
         <v>37</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>115</v>
+        <v>133</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>162</v>
+        <v>37</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="G42" s="7">
+        <v>115</v>
+      </c>
+      <c r="G42" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="H42" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="I42" s="7">
         <v>2119</v>
       </c>
-      <c r="H42" s="7">
+      <c r="J42" s="7">
         <v>238221</v>
       </c>
-      <c r="I42" s="7">
+      <c r="K42" s="7">
         <v>1889</v>
       </c>
-      <c r="J42" s="7">
-        <v>2014</v>
-      </c>
-      <c r="K42" s="7">
+      <c r="L42" s="7">
+        <v>2014</v>
+      </c>
+      <c r="M42" s="7">
         <v>100</v>
       </c>
-      <c r="L42" s="7">
+      <c r="N42" s="7">
         <v>1.5</v>
       </c>
-      <c r="R42" s="7">
+      <c r="T42" s="7">
         <v>19.3</v>
       </c>
-      <c r="S42" s="7">
+      <c r="U42" s="7">
         <v>0.56000000000000005</v>
       </c>
-      <c r="U42" s="7">
+      <c r="W42" s="7">
         <v>1200403000</v>
       </c>
     </row>
-    <row r="43" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="7" t="s">
+    <row r="43" spans="1:23" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="18" t="s">
+        <v>210</v>
+      </c>
+      <c r="B43" s="18">
+        <v>2</v>
+      </c>
+      <c r="C43" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="B43" s="7" t="s">
+      <c r="D43" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="C43" s="7" t="s">
+      <c r="E43" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="D43" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="E43" s="7" t="s">
-        <v>162</v>
-      </c>
       <c r="F43" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="G43" s="7">
+        <v>115</v>
+      </c>
+      <c r="G43" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="H43" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="I43" s="7">
         <v>2110</v>
       </c>
-      <c r="H43" s="7">
+      <c r="J43" s="7">
         <v>121932</v>
       </c>
-      <c r="I43" s="7">
+      <c r="K43" s="7">
         <v>1830</v>
       </c>
-      <c r="J43" s="7">
-        <v>2014</v>
-      </c>
       <c r="L43" s="7">
+        <v>2014</v>
+      </c>
+      <c r="N43" s="7">
         <v>2.4</v>
       </c>
-      <c r="R43" s="7">
+      <c r="T43" s="7">
         <v>27.9</v>
       </c>
-      <c r="S43" s="7">
+      <c r="U43" s="7">
         <v>22.98</v>
       </c>
-      <c r="U43" s="7">
+      <c r="W43" s="7">
         <v>303028406</v>
       </c>
     </row>
-    <row r="44" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="7" t="s">
+    <row r="44" spans="1:23" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="18" t="s">
+        <v>213</v>
+      </c>
+      <c r="B44" s="18">
+        <v>3</v>
+      </c>
+      <c r="C44" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="B44" s="7" t="s">
+      <c r="D44" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="C44" s="7" t="s">
+      <c r="E44" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="D44" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="E44" s="7" t="s">
-        <v>162</v>
-      </c>
       <c r="F44" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="G44" s="7">
+        <v>115</v>
+      </c>
+      <c r="G44" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="H44" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="I44" s="7">
         <v>2118</v>
       </c>
-      <c r="H44" s="7">
+      <c r="J44" s="7">
         <v>114190</v>
       </c>
-      <c r="I44" s="7">
+      <c r="K44" s="7">
         <v>1900</v>
       </c>
-      <c r="J44" s="7">
-        <v>2014</v>
-      </c>
-      <c r="K44" s="7">
+      <c r="L44" s="7">
+        <v>2014</v>
+      </c>
+      <c r="M44" s="7">
         <v>100</v>
       </c>
-      <c r="L44" s="7">
+      <c r="N44" s="7">
         <v>2.9</v>
       </c>
-      <c r="R44" s="7">
+      <c r="T44" s="7">
         <v>32.299999999999997</v>
       </c>
-      <c r="S44" s="7">
+      <c r="U44" s="7">
         <v>6.27</v>
       </c>
-      <c r="U44" s="7">
+      <c r="W44" s="7">
         <v>901150000</v>
       </c>
     </row>
-    <row r="45" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="7" t="s">
+    <row r="45" spans="1:23" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="18" t="s">
+        <v>214</v>
+      </c>
+      <c r="B45" s="18">
+        <v>4</v>
+      </c>
+      <c r="C45" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="B45" s="7" t="s">
+      <c r="D45" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="C45" s="7" t="s">
+      <c r="E45" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="D45" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="E45" s="7" t="s">
-        <v>162</v>
-      </c>
       <c r="F45" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="G45" s="7">
+        <v>115</v>
+      </c>
+      <c r="G45" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="H45" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="I45" s="7">
         <v>2115</v>
       </c>
-      <c r="H45" s="7">
+      <c r="J45" s="7">
         <v>781000</v>
       </c>
-      <c r="I45" s="7">
+      <c r="K45" s="7">
         <v>1988</v>
       </c>
-      <c r="J45" s="7">
-        <v>2014</v>
-      </c>
-      <c r="K45" s="7">
+      <c r="L45" s="7">
+        <v>2014</v>
+      </c>
+      <c r="M45" s="7">
         <v>100</v>
       </c>
-      <c r="L45" s="7">
+      <c r="N45" s="7">
         <v>3.8</v>
       </c>
-      <c r="R45" s="7">
+      <c r="T45" s="7">
         <v>202</v>
       </c>
-      <c r="S45" s="7">
+      <c r="U45" s="7">
         <v>4.87</v>
       </c>
-      <c r="U45" s="7">
+      <c r="W45" s="7">
         <v>503596000</v>
       </c>
     </row>
-    <row r="46" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="B46" s="7" t="s">
-        <v>133</v>
+    <row r="46" spans="1:23" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="18" t="s">
+        <v>215</v>
+      </c>
+      <c r="B46" s="18">
+        <v>5</v>
       </c>
       <c r="C46" s="7" t="s">
         <v>40</v>
       </c>
       <c r="D46" s="7" t="s">
-        <v>115</v>
+        <v>133</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>162</v>
+        <v>40</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="G46" s="7">
+        <v>115</v>
+      </c>
+      <c r="G46" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="H46" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="I46" s="7">
         <v>2120</v>
       </c>
-      <c r="H46" s="7">
+      <c r="J46" s="7">
         <v>114190</v>
       </c>
-      <c r="I46" s="7">
+      <c r="K46" s="7">
         <v>1900</v>
       </c>
-      <c r="J46" s="7">
-        <v>2014</v>
-      </c>
-      <c r="K46" s="7">
+      <c r="L46" s="7">
+        <v>2014</v>
+      </c>
+      <c r="M46" s="7">
         <v>100</v>
       </c>
-      <c r="L46" s="7">
+      <c r="N46" s="7">
         <v>3.8</v>
       </c>
-      <c r="R46" s="7">
+      <c r="T46" s="7">
         <v>42.5</v>
       </c>
-      <c r="S46" s="7">
+      <c r="U46" s="7">
         <v>19.47</v>
       </c>
-      <c r="U46" s="7">
+      <c r="W46" s="7">
         <v>901850000</v>
       </c>
     </row>
-    <row r="47" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="7" t="s">
+    <row r="47" spans="1:23" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="18" t="s">
+        <v>216</v>
+      </c>
+      <c r="B47" s="18">
+        <v>6</v>
+      </c>
+      <c r="C47" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="B47" s="7" t="s">
+      <c r="D47" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="C47" s="7" t="s">
+      <c r="E47" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="D47" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="E47" s="7" t="s">
-        <v>162</v>
-      </c>
       <c r="F47" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="G47" s="7">
+        <v>115</v>
+      </c>
+      <c r="G47" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="H47" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="I47" s="7">
         <v>2129</v>
       </c>
-      <c r="H47" s="7">
+      <c r="J47" s="7">
         <v>28820</v>
       </c>
-      <c r="I47" s="7">
+      <c r="K47" s="7">
         <v>1989</v>
       </c>
-      <c r="J47" s="7">
-        <v>2014</v>
-      </c>
-      <c r="K47" s="7">
+      <c r="L47" s="7">
+        <v>2014</v>
+      </c>
+      <c r="M47" s="7">
         <v>100</v>
       </c>
-      <c r="L47" s="7">
+      <c r="N47" s="7">
         <v>7.7</v>
       </c>
-      <c r="R47" s="7">
+      <c r="T47" s="7">
         <v>21.3</v>
       </c>
-      <c r="S47" s="7">
+      <c r="U47" s="7">
         <v>64.400000000000006</v>
       </c>
-      <c r="U47" s="7">
+      <c r="W47" s="7">
         <v>203517500</v>
       </c>
     </row>
-    <row r="48" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="7" t="s">
+    <row r="48" spans="1:23" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="18" t="s">
+        <v>217</v>
+      </c>
+      <c r="B48" s="18">
+        <v>7</v>
+      </c>
+      <c r="C48" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B48" s="7" t="s">
+      <c r="D48" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="C48" s="7" t="s">
+      <c r="E48" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="D48" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="E48" s="7" t="s">
-        <v>162</v>
-      </c>
       <c r="F48" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="G48" s="7">
+        <v>115</v>
+      </c>
+      <c r="G48" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="H48" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="I48" s="7">
         <v>2135</v>
       </c>
-      <c r="H48" s="7">
+      <c r="J48" s="7">
         <v>35000</v>
       </c>
-      <c r="I48" s="7">
+      <c r="K48" s="7">
         <v>1928</v>
       </c>
-      <c r="J48" s="7">
-        <v>2014</v>
-      </c>
-      <c r="K48" s="7">
+      <c r="L48" s="7">
+        <v>2014</v>
+      </c>
+      <c r="M48" s="7">
         <v>100</v>
       </c>
-      <c r="L48" s="7">
+      <c r="N48" s="7">
         <v>8.1</v>
       </c>
-      <c r="R48" s="7">
+      <c r="T48" s="7">
         <v>27.6</v>
       </c>
-      <c r="S48" s="7">
+      <c r="U48" s="7">
         <v>48.68</v>
       </c>
     </row>
-    <row r="49" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="7" t="s">
+    <row r="49" spans="1:23" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="18" t="s">
+        <v>218</v>
+      </c>
+      <c r="B49" s="18">
+        <v>8</v>
+      </c>
+      <c r="C49" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="B49" s="7" t="s">
+      <c r="D49" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="C49" s="7" t="s">
+      <c r="E49" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="D49" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="E49" s="7" t="s">
-        <v>162</v>
-      </c>
       <c r="F49" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="G49" s="7">
+        <v>115</v>
+      </c>
+      <c r="G49" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="H49" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="I49" s="7">
         <v>2109</v>
       </c>
-      <c r="H49" s="7">
+      <c r="J49" s="7">
         <v>100800</v>
       </c>
-      <c r="I49" s="7">
+      <c r="K49" s="7">
         <v>1990</v>
       </c>
-      <c r="J49" s="7">
-        <v>2014</v>
-      </c>
-      <c r="K49" s="7">
+      <c r="L49" s="7">
+        <v>2014</v>
+      </c>
+      <c r="M49" s="7">
         <v>100</v>
       </c>
-      <c r="L49" s="7">
+      <c r="N49" s="7">
         <v>8.5</v>
       </c>
-      <c r="R49" s="7">
+      <c r="T49" s="7">
         <v>82.5</v>
       </c>
-      <c r="S49" s="7">
+      <c r="U49" s="7">
         <v>20.440000000000001</v>
       </c>
-      <c r="U49" s="7">
+      <c r="W49" s="7">
         <v>303478000</v>
       </c>
     </row>
-    <row r="50" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="7" t="s">
+    <row r="50" spans="1:23" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="18" t="s">
+        <v>219</v>
+      </c>
+      <c r="B50" s="18">
+        <v>9</v>
+      </c>
+      <c r="C50" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="B50" s="7" t="s">
+      <c r="D50" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="C50" s="7" t="s">
+      <c r="E50" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="D50" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="E50" s="7" t="s">
-        <v>162</v>
-      </c>
       <c r="F50" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="G50" s="7">
+        <v>115</v>
+      </c>
+      <c r="G50" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="H50" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="I50" s="7">
         <v>2110</v>
       </c>
-      <c r="H50" s="7">
+      <c r="J50" s="7">
         <v>323789</v>
       </c>
-      <c r="I50" s="7">
+      <c r="K50" s="7">
         <v>2006</v>
       </c>
-      <c r="J50" s="7">
-        <v>2014</v>
-      </c>
-      <c r="K50" s="7">
+      <c r="L50" s="7">
+        <v>2014</v>
+      </c>
+      <c r="M50" s="7">
         <v>100</v>
       </c>
-      <c r="L50" s="7">
+      <c r="N50" s="7">
         <v>9.4</v>
       </c>
-      <c r="R50" s="7">
+      <c r="T50" s="7">
         <v>294.60000000000002</v>
       </c>
-      <c r="S50" s="7">
+      <c r="U50" s="7">
         <v>11.38</v>
       </c>
-      <c r="U50" s="7">
+      <c r="W50" s="7">
         <v>303990010</v>
       </c>
     </row>
-    <row r="51" spans="1:21" s="15" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A51" s="15" t="s">
+    <row r="51" spans="1:23" s="15" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A51" s="18" t="s">
+        <v>220</v>
+      </c>
+      <c r="B51" s="18">
+        <v>10</v>
+      </c>
+      <c r="C51" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="B51" s="15" t="s">
+      <c r="D51" s="15" t="s">
         <v>133</v>
       </c>
-      <c r="C51" s="15" t="s">
+      <c r="E51" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="D51" s="15" t="s">
-        <v>115</v>
-      </c>
-      <c r="E51" s="15" t="s">
-        <v>162</v>
-      </c>
       <c r="F51" s="15" t="s">
-        <v>163</v>
-      </c>
-      <c r="G51" s="15">
+        <v>115</v>
+      </c>
+      <c r="G51" s="15" t="s">
+        <v>162</v>
+      </c>
+      <c r="H51" s="15" t="s">
+        <v>163</v>
+      </c>
+      <c r="I51" s="15">
         <v>2115</v>
       </c>
-      <c r="H51" s="15">
+      <c r="J51" s="15">
         <v>45324</v>
       </c>
-      <c r="I51" s="15">
+      <c r="K51" s="15">
         <v>1950</v>
       </c>
-      <c r="J51" s="15">
-        <v>2014</v>
-      </c>
-      <c r="K51" s="15">
+      <c r="L51" s="15">
+        <v>2014</v>
+      </c>
+      <c r="M51" s="15">
         <v>100</v>
       </c>
-      <c r="L51" s="15">
+      <c r="N51" s="15">
         <v>10.1</v>
       </c>
-      <c r="R51" s="15">
+      <c r="T51" s="15">
         <v>43.3</v>
       </c>
-      <c r="S51" s="15">
+      <c r="U51" s="15">
         <v>43.91</v>
       </c>
-      <c r="U51" s="15">
+      <c r="W51" s="15">
         <v>342026457</v>
       </c>
     </row>
-    <row r="52" spans="1:21" s="8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="8" t="s">
+    <row r="52" spans="1:23" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="18" t="s">
+        <v>211</v>
+      </c>
+      <c r="B52" s="18">
+        <v>1</v>
+      </c>
+      <c r="C52" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="B52" s="8" t="s">
+      <c r="D52" s="8" t="s">
         <v>153</v>
       </c>
-      <c r="C52" s="8" t="s">
+      <c r="E52" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="D52" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="E52" s="8" t="s">
-        <v>162</v>
-      </c>
       <c r="F52" s="8" t="s">
-        <v>163</v>
-      </c>
-      <c r="G52" s="8">
+        <v>115</v>
+      </c>
+      <c r="G52" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="H52" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="I52" s="8">
         <v>2118</v>
       </c>
-      <c r="H52" s="8">
+      <c r="J52" s="8">
         <v>145000</v>
       </c>
-      <c r="I52" s="8">
+      <c r="K52" s="8">
         <v>1889</v>
       </c>
-      <c r="J52" s="8">
-        <v>2014</v>
-      </c>
-      <c r="K52" s="8">
+      <c r="L52" s="8">
+        <v>2014</v>
+      </c>
+      <c r="M52" s="8">
         <v>100</v>
       </c>
-      <c r="L52" s="8">
+      <c r="N52" s="8">
         <v>10</v>
       </c>
-      <c r="R52" s="8">
+      <c r="T52" s="8">
         <v>84.9</v>
       </c>
-      <c r="S52" s="8">
+      <c r="U52" s="8">
         <v>7.83</v>
       </c>
-      <c r="U52" s="8">
+      <c r="W52" s="8">
         <v>306536000</v>
       </c>
     </row>
-    <row r="53" spans="1:21" s="8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="8" t="s">
+    <row r="53" spans="1:23" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="18" t="s">
+        <v>212</v>
+      </c>
+      <c r="B53" s="18">
+        <v>2</v>
+      </c>
+      <c r="C53" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B53" s="8" t="s">
+      <c r="D53" s="8" t="s">
         <v>153</v>
       </c>
-      <c r="C53" s="8" t="s">
+      <c r="E53" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D53" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="E53" s="8" t="s">
-        <v>162</v>
-      </c>
       <c r="F53" s="8" t="s">
-        <v>163</v>
-      </c>
-      <c r="G53" s="8">
+        <v>115</v>
+      </c>
+      <c r="G53" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="H53" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="I53" s="8">
         <v>2118</v>
       </c>
-      <c r="H53" s="8">
+      <c r="J53" s="8">
         <v>44719</v>
       </c>
-      <c r="I53" s="8">
+      <c r="K53" s="8">
         <v>2000</v>
       </c>
-      <c r="J53" s="8">
-        <v>2014</v>
-      </c>
-      <c r="K53" s="8">
+      <c r="L53" s="8">
+        <v>2014</v>
+      </c>
+      <c r="M53" s="8">
         <v>100</v>
       </c>
-      <c r="L53" s="8">
+      <c r="N53" s="8">
         <v>11.4</v>
       </c>
-      <c r="R53" s="8">
+      <c r="T53" s="8">
         <v>49.5</v>
       </c>
     </row>
-    <row r="54" spans="1:21" s="8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="8" t="s">
+    <row r="54" spans="1:23" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="18" t="s">
+        <v>223</v>
+      </c>
+      <c r="B54" s="18">
+        <v>3</v>
+      </c>
+      <c r="C54" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="B54" s="8" t="s">
+      <c r="D54" s="8" t="s">
         <v>153</v>
       </c>
-      <c r="C54" s="8" t="s">
+      <c r="E54" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="D54" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="E54" s="8" t="s">
-        <v>162</v>
-      </c>
       <c r="F54" s="8" t="s">
-        <v>163</v>
-      </c>
-      <c r="G54" s="8">
+        <v>115</v>
+      </c>
+      <c r="G54" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="H54" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="I54" s="8">
         <v>2115</v>
       </c>
-      <c r="H54" s="8">
+      <c r="J54" s="8">
         <v>20000</v>
       </c>
-      <c r="I54" s="8">
+      <c r="K54" s="8">
         <v>1950</v>
       </c>
-      <c r="J54" s="8">
-        <v>2014</v>
-      </c>
       <c r="L54" s="8">
+        <v>2014</v>
+      </c>
+      <c r="N54" s="8">
         <v>14.6</v>
       </c>
-      <c r="R54" s="8">
+      <c r="T54" s="8">
         <v>28.2</v>
       </c>
     </row>
-    <row r="55" spans="1:21" s="8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="8" t="s">
+    <row r="55" spans="1:23" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="18" t="s">
+        <v>221</v>
+      </c>
+      <c r="B55" s="18">
+        <v>4</v>
+      </c>
+      <c r="C55" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="B55" s="8" t="s">
+      <c r="D55" s="8" t="s">
         <v>153</v>
       </c>
-      <c r="C55" s="8" t="s">
+      <c r="E55" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="D55" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="E55" s="8" t="s">
-        <v>162</v>
-      </c>
       <c r="F55" s="8" t="s">
-        <v>163</v>
-      </c>
-      <c r="G55" s="8">
+        <v>115</v>
+      </c>
+      <c r="G55" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="H55" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="I55" s="8">
         <v>2118</v>
       </c>
-      <c r="H55" s="8">
+      <c r="J55" s="8">
         <v>196000</v>
       </c>
-      <c r="I55" s="8">
+      <c r="K55" s="8">
         <v>1902</v>
       </c>
-      <c r="J55" s="8">
-        <v>2014</v>
-      </c>
-      <c r="K55" s="8">
+      <c r="L55" s="8">
+        <v>2014</v>
+      </c>
+      <c r="M55" s="8">
         <v>100</v>
       </c>
-      <c r="L55" s="8">
+      <c r="N55" s="8">
         <v>15.1</v>
       </c>
-      <c r="R55" s="8">
+      <c r="T55" s="8">
         <v>233</v>
       </c>
-      <c r="S55" s="8">
+      <c r="U55" s="8">
         <v>23</v>
       </c>
-      <c r="U55" s="8">
+      <c r="W55" s="8">
         <v>306529000</v>
       </c>
     </row>
-    <row r="56" spans="1:21" s="8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="B56" s="8" t="s">
-        <v>153</v>
+    <row r="56" spans="1:23" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="18" t="s">
+        <v>224</v>
+      </c>
+      <c r="B56" s="18">
+        <v>5</v>
       </c>
       <c r="C56" s="8" t="s">
         <v>35</v>
       </c>
       <c r="D56" s="8" t="s">
-        <v>115</v>
+        <v>153</v>
       </c>
       <c r="E56" s="8" t="s">
-        <v>162</v>
+        <v>35</v>
       </c>
       <c r="F56" s="8" t="s">
-        <v>163</v>
-      </c>
-      <c r="G56" s="8">
+        <v>115</v>
+      </c>
+      <c r="G56" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="H56" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="I56" s="8">
         <v>2446</v>
       </c>
-      <c r="H56" s="8">
+      <c r="J56" s="8">
         <v>99352</v>
       </c>
-      <c r="I56" s="8">
+      <c r="K56" s="8">
         <v>1921</v>
       </c>
-      <c r="J56" s="8">
-        <v>2014</v>
-      </c>
-      <c r="K56" s="8">
+      <c r="L56" s="8">
+        <v>2014</v>
+      </c>
+      <c r="M56" s="8">
         <v>100</v>
       </c>
-      <c r="L56" s="8">
+      <c r="N56" s="8">
         <v>20.399999999999999</v>
       </c>
-      <c r="R56" s="8">
+      <c r="T56" s="8">
         <v>154.69999999999999</v>
       </c>
-      <c r="S56" s="8">
+      <c r="U56" s="8">
         <v>32.840000000000003</v>
       </c>
     </row>
-    <row r="57" spans="1:21" s="8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="8" t="s">
+    <row r="57" spans="1:23" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="18" t="s">
+        <v>226</v>
+      </c>
+      <c r="B57" s="18">
+        <v>6</v>
+      </c>
+      <c r="C57" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="B57" s="8" t="s">
+      <c r="D57" s="8" t="s">
         <v>153</v>
       </c>
-      <c r="C57" s="8" t="s">
+      <c r="E57" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="D57" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="E57" s="8" t="s">
-        <v>162</v>
-      </c>
       <c r="F57" s="8" t="s">
-        <v>163</v>
-      </c>
-      <c r="G57" s="8">
+        <v>115</v>
+      </c>
+      <c r="G57" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="H57" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="I57" s="8">
         <v>2135</v>
       </c>
-      <c r="H57" s="8">
+      <c r="J57" s="8">
         <v>115577</v>
       </c>
-      <c r="I57" s="8">
+      <c r="K57" s="8">
         <v>1975</v>
       </c>
-      <c r="J57" s="8">
-        <v>2014</v>
-      </c>
-      <c r="K57" s="8">
+      <c r="L57" s="8">
+        <v>2014</v>
+      </c>
+      <c r="M57" s="8">
         <v>100</v>
       </c>
-      <c r="L57" s="8">
+      <c r="N57" s="8">
         <v>20.7</v>
       </c>
-      <c r="R57" s="8">
+      <c r="T57" s="8">
         <v>130.4</v>
       </c>
-      <c r="S57" s="8">
+      <c r="U57" s="8">
         <v>5.53</v>
       </c>
-      <c r="U57" s="8">
+      <c r="W57" s="8">
         <v>2200966000</v>
       </c>
     </row>
-    <row r="58" spans="1:21" s="8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="8" t="s">
+    <row r="58" spans="1:23" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="18" t="s">
+        <v>227</v>
+      </c>
+      <c r="B58" s="18">
+        <v>7</v>
+      </c>
+      <c r="C58" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="B58" s="8" t="s">
+      <c r="D58" s="8" t="s">
         <v>153</v>
       </c>
-      <c r="C58" s="8" t="s">
+      <c r="E58" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="D58" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="E58" s="8" t="s">
-        <v>162</v>
-      </c>
       <c r="F58" s="8" t="s">
-        <v>163</v>
-      </c>
-      <c r="G58" s="8">
+        <v>115</v>
+      </c>
+      <c r="G58" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="H58" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="I58" s="8">
         <v>2119</v>
       </c>
-      <c r="H58" s="8">
+      <c r="J58" s="8">
         <v>31973</v>
       </c>
-      <c r="I58" s="8">
+      <c r="K58" s="8">
         <v>1920</v>
       </c>
-      <c r="J58" s="8">
-        <v>2014</v>
-      </c>
-      <c r="K58" s="8">
+      <c r="L58" s="8">
+        <v>2014</v>
+      </c>
+      <c r="M58" s="8">
         <v>100</v>
       </c>
-      <c r="L58" s="8">
+      <c r="N58" s="8">
         <v>23.2</v>
       </c>
-      <c r="R58" s="8">
+      <c r="T58" s="8">
         <v>52.4</v>
       </c>
-      <c r="S58" s="8">
+      <c r="U58" s="8">
         <v>15.73</v>
       </c>
-      <c r="U58" s="8">
+      <c r="W58" s="8">
         <v>802533010</v>
       </c>
     </row>
-    <row r="59" spans="1:21" s="8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="8" t="s">
+    <row r="59" spans="1:23" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="18" t="s">
+        <v>225</v>
+      </c>
+      <c r="B59" s="18">
+        <v>8</v>
+      </c>
+      <c r="C59" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="B59" s="8" t="s">
+      <c r="D59" s="8" t="s">
         <v>153</v>
       </c>
-      <c r="C59" s="8" t="s">
+      <c r="E59" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="D59" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="E59" s="8" t="s">
-        <v>162</v>
-      </c>
       <c r="F59" s="8" t="s">
-        <v>163</v>
-      </c>
-      <c r="G59" s="8">
+        <v>115</v>
+      </c>
+      <c r="G59" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="H59" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="I59" s="8">
         <v>2026</v>
       </c>
-      <c r="H59" s="8">
+      <c r="J59" s="8">
         <v>58921</v>
       </c>
-      <c r="I59" s="8">
+      <c r="K59" s="8">
         <v>1924</v>
       </c>
-      <c r="J59" s="8">
-        <v>2014</v>
-      </c>
-      <c r="K59" s="8">
+      <c r="L59" s="8">
+        <v>2014</v>
+      </c>
+      <c r="M59" s="8">
         <v>100</v>
       </c>
-      <c r="L59" s="8">
+      <c r="N59" s="8">
         <v>23.8</v>
       </c>
-      <c r="R59" s="8">
+      <c r="T59" s="8">
         <v>135.80000000000001</v>
       </c>
-      <c r="U59" s="8">
+      <c r="W59" s="8">
         <v>304704000</v>
       </c>
     </row>
-    <row r="60" spans="1:21" s="8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="8" t="s">
+    <row r="60" spans="1:23" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="18" t="s">
+        <v>222</v>
+      </c>
+      <c r="B60" s="18">
+        <v>9</v>
+      </c>
+      <c r="C60" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="B60" s="8" t="s">
+      <c r="D60" s="8" t="s">
         <v>153</v>
       </c>
-      <c r="C60" s="8" t="s">
+      <c r="E60" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="D60" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="E60" s="8" t="s">
-        <v>162</v>
-      </c>
       <c r="F60" s="8" t="s">
-        <v>163</v>
-      </c>
-      <c r="G60" s="8">
+        <v>115</v>
+      </c>
+      <c r="G60" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="H60" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="I60" s="8">
         <v>2118</v>
       </c>
-      <c r="H60" s="8">
+      <c r="J60" s="8">
         <v>80000</v>
       </c>
-      <c r="I60" s="8">
+      <c r="K60" s="8">
         <v>1897</v>
       </c>
-      <c r="J60" s="8">
-        <v>2014</v>
-      </c>
-      <c r="K60" s="8">
+      <c r="L60" s="8">
+        <v>2014</v>
+      </c>
+      <c r="M60" s="8">
         <v>100</v>
       </c>
-      <c r="L60" s="8">
+      <c r="N60" s="8">
         <v>28.1</v>
       </c>
-      <c r="R60" s="8">
+      <c r="T60" s="8">
         <v>130.69999999999999</v>
       </c>
-      <c r="S60" s="8">
+      <c r="U60" s="8">
         <v>19.010000000000002</v>
       </c>
-      <c r="U60" s="8">
+      <c r="W60" s="8">
         <v>305959000</v>
       </c>
     </row>
-    <row r="61" spans="1:21" s="16" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A61" s="16" t="s">
-        <v>122</v>
-      </c>
-      <c r="B61" s="16" t="s">
-        <v>153</v>
+    <row r="61" spans="1:23" s="16" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A61" s="18" t="s">
+        <v>228</v>
+      </c>
+      <c r="B61" s="18">
+        <v>10</v>
       </c>
       <c r="C61" s="16" t="s">
         <v>122</v>
       </c>
       <c r="D61" s="16" t="s">
-        <v>115</v>
+        <v>153</v>
       </c>
       <c r="E61" s="16" t="s">
-        <v>162</v>
+        <v>122</v>
       </c>
       <c r="F61" s="16" t="s">
-        <v>163</v>
-      </c>
-      <c r="G61" s="16">
+        <v>115</v>
+      </c>
+      <c r="G61" s="16" t="s">
+        <v>162</v>
+      </c>
+      <c r="H61" s="16" t="s">
+        <v>163</v>
+      </c>
+      <c r="I61" s="16">
         <v>2114</v>
       </c>
-      <c r="H61" s="16">
+      <c r="J61" s="16">
         <v>63750</v>
       </c>
-      <c r="I61" s="16">
+      <c r="K61" s="16">
         <v>1917</v>
       </c>
-      <c r="J61" s="16">
-        <v>2014</v>
-      </c>
       <c r="L61" s="16">
+        <v>2014</v>
+      </c>
+      <c r="N61" s="16">
         <v>28.2</v>
       </c>
-      <c r="R61" s="16">
+      <c r="T61" s="16">
         <v>135.69999999999999</v>
       </c>
-      <c r="S61" s="16">
+      <c r="U61" s="16">
         <v>0.09</v>
       </c>
-      <c r="U61" s="16">
+      <c r="W61" s="16">
         <v>1517000</v>
       </c>
     </row>
-    <row r="62" spans="1:21" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A62" s="9" t="s">
+    <row r="62" spans="1:23" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="18" t="s">
+        <v>230</v>
+      </c>
+      <c r="B62" s="18">
+        <v>1</v>
+      </c>
+      <c r="C62" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="B62" s="9" t="s">
+      <c r="D62" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="C62" s="9" t="s">
+      <c r="E62" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="D62" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="E62" s="9" t="s">
-        <v>162</v>
-      </c>
       <c r="F62" s="9" t="s">
-        <v>163</v>
-      </c>
-      <c r="G62" s="9">
+        <v>115</v>
+      </c>
+      <c r="G62" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="H62" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="I62" s="9">
         <v>2128</v>
       </c>
-      <c r="H62" s="9">
+      <c r="J62" s="9">
         <v>145016</v>
       </c>
-      <c r="I62" s="9">
+      <c r="K62" s="9">
         <v>1900</v>
       </c>
-      <c r="J62" s="9">
-        <v>2014</v>
-      </c>
-      <c r="K62" s="9">
+      <c r="L62" s="9">
+        <v>2014</v>
+      </c>
+      <c r="M62" s="9">
         <v>87</v>
       </c>
-      <c r="L62" s="9">
+      <c r="N62" s="9">
         <v>45.9</v>
       </c>
-      <c r="R62" s="9">
+      <c r="T62" s="9">
         <v>454.6</v>
       </c>
-      <c r="S62" s="9">
+      <c r="U62" s="9">
         <v>10.73</v>
       </c>
-      <c r="U62" s="9">
+      <c r="W62" s="9">
         <v>105980000</v>
       </c>
     </row>
-    <row r="63" spans="1:21" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="9" t="s">
+    <row r="63" spans="1:23" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="18" t="s">
+        <v>231</v>
+      </c>
+      <c r="B63" s="18">
+        <v>2</v>
+      </c>
+      <c r="C63" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="B63" s="9" t="s">
+      <c r="D63" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="C63" s="9" t="s">
+      <c r="E63" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="D63" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="E63" s="9" t="s">
-        <v>162</v>
-      </c>
       <c r="F63" s="9" t="s">
-        <v>163</v>
-      </c>
-      <c r="G63" s="9">
+        <v>115</v>
+      </c>
+      <c r="G63" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="H63" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="I63" s="9">
         <v>2163</v>
       </c>
-      <c r="H63" s="9">
+      <c r="J63" s="9">
         <v>50786</v>
       </c>
-      <c r="I63" s="9">
+      <c r="K63" s="9">
         <v>1926</v>
       </c>
-      <c r="J63" s="9">
-        <v>2014</v>
-      </c>
-      <c r="K63" s="9">
+      <c r="L63" s="9">
+        <v>2014</v>
+      </c>
+      <c r="M63" s="9">
         <v>91</v>
       </c>
-      <c r="L63" s="9">
+      <c r="N63" s="9">
         <v>50.1</v>
       </c>
-      <c r="R63" s="9">
+      <c r="T63" s="9">
         <v>196.4</v>
       </c>
-      <c r="S63" s="9">
+      <c r="U63" s="9">
         <v>22.93</v>
       </c>
-      <c r="U63" s="9">
+      <c r="W63" s="9">
         <v>2200530000</v>
       </c>
     </row>
-    <row r="64" spans="1:21" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A64" s="9" t="s">
+    <row r="64" spans="1:23" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="18" t="s">
+        <v>232</v>
+      </c>
+      <c r="B64" s="18">
+        <v>3</v>
+      </c>
+      <c r="C64" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="B64" s="9" t="s">
+      <c r="D64" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="C64" s="9" t="s">
+      <c r="E64" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="D64" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="E64" s="9" t="s">
-        <v>162</v>
-      </c>
       <c r="F64" s="9" t="s">
-        <v>163</v>
-      </c>
-      <c r="G64" s="9">
+        <v>115</v>
+      </c>
+      <c r="G64" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="H64" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="I64" s="9">
         <v>2215</v>
       </c>
-      <c r="H64" s="9">
+      <c r="J64" s="9">
         <v>36940</v>
       </c>
-      <c r="I64" s="9">
+      <c r="K64" s="9">
         <v>1910</v>
       </c>
-      <c r="J64" s="9">
-        <v>2014</v>
-      </c>
-      <c r="K64" s="9">
+      <c r="L64" s="9">
+        <v>2014</v>
+      </c>
+      <c r="M64" s="9">
         <v>88</v>
       </c>
-      <c r="L64" s="9">
+      <c r="N64" s="9">
         <v>51.5</v>
       </c>
-      <c r="R64" s="9">
+      <c r="T64" s="9">
         <v>137.5</v>
       </c>
-      <c r="S64" s="9">
+      <c r="U64" s="9">
         <v>3.03</v>
       </c>
-      <c r="U64" s="9">
+      <c r="W64" s="9">
         <v>402000000</v>
       </c>
     </row>
-    <row r="65" spans="1:21" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A65" s="9" t="s">
+    <row r="65" spans="1:23" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="18" t="s">
+        <v>233</v>
+      </c>
+      <c r="B65" s="18">
+        <v>4</v>
+      </c>
+      <c r="C65" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="B65" s="9" t="s">
+      <c r="D65" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="C65" s="9" t="s">
+      <c r="E65" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="D65" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="E65" s="9" t="s">
-        <v>162</v>
-      </c>
       <c r="F65" s="9" t="s">
-        <v>163</v>
-      </c>
-      <c r="G65" s="9">
+        <v>115</v>
+      </c>
+      <c r="G65" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="H65" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="I65" s="9">
         <v>2163</v>
       </c>
-      <c r="H65" s="9">
+      <c r="J65" s="9">
         <v>49297</v>
       </c>
-      <c r="I65" s="9">
+      <c r="K65" s="9">
         <v>1926</v>
       </c>
-      <c r="J65" s="9">
-        <v>2014</v>
-      </c>
-      <c r="K65" s="9">
+      <c r="L65" s="9">
+        <v>2014</v>
+      </c>
+      <c r="M65" s="9">
         <v>86</v>
       </c>
-      <c r="L65" s="9">
+      <c r="N65" s="9">
         <v>53.3</v>
       </c>
-      <c r="R65" s="9">
+      <c r="T65" s="9">
         <v>207.6</v>
       </c>
-      <c r="S65" s="9">
+      <c r="U65" s="9">
         <v>22.87</v>
       </c>
     </row>
-    <row r="66" spans="1:21" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A66" s="9" t="s">
+    <row r="66" spans="1:23" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="18" t="s">
+        <v>234</v>
+      </c>
+      <c r="B66" s="18">
+        <v>5</v>
+      </c>
+      <c r="C66" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="B66" s="9" t="s">
+      <c r="D66" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="C66" s="9" t="s">
+      <c r="E66" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="D66" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="E66" s="9" t="s">
-        <v>162</v>
-      </c>
       <c r="F66" s="9" t="s">
-        <v>163</v>
-      </c>
-      <c r="G66" s="9">
+        <v>115</v>
+      </c>
+      <c r="G66" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="H66" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="I66" s="9">
         <v>2163</v>
       </c>
-      <c r="H66" s="9">
+      <c r="J66" s="9">
         <v>78375</v>
       </c>
-      <c r="I66" s="9">
+      <c r="K66" s="9">
         <v>1969</v>
       </c>
-      <c r="J66" s="9">
-        <v>2014</v>
-      </c>
-      <c r="K66" s="9">
+      <c r="L66" s="9">
+        <v>2014</v>
+      </c>
+      <c r="M66" s="9">
         <v>91</v>
       </c>
-      <c r="L66" s="9">
+      <c r="N66" s="9">
         <v>53.6</v>
       </c>
-      <c r="R66" s="9">
+      <c r="T66" s="9">
         <v>315.8</v>
       </c>
-      <c r="U66" s="9">
+      <c r="W66" s="9">
         <v>2200530000</v>
       </c>
     </row>
-    <row r="67" spans="1:21" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A67" s="9" t="s">
+    <row r="67" spans="1:23" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="18" t="s">
+        <v>235</v>
+      </c>
+      <c r="B67" s="18">
+        <v>6</v>
+      </c>
+      <c r="C67" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B67" s="9" t="s">
+      <c r="D67" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="C67" s="9" t="s">
+      <c r="E67" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="D67" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="E67" s="9" t="s">
-        <v>162</v>
-      </c>
       <c r="F67" s="9" t="s">
-        <v>163</v>
-      </c>
-      <c r="G67" s="9">
+        <v>115</v>
+      </c>
+      <c r="G67" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="H67" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="I67" s="9">
         <v>2115</v>
       </c>
-      <c r="H67" s="9">
+      <c r="J67" s="9">
         <v>94450</v>
       </c>
-      <c r="I67" s="9">
+      <c r="K67" s="9">
         <v>1966</v>
       </c>
-      <c r="J67" s="9">
-        <v>2014</v>
-      </c>
-      <c r="K67" s="9">
+      <c r="L67" s="9">
+        <v>2014</v>
+      </c>
+      <c r="M67" s="9">
         <v>85</v>
       </c>
-      <c r="L67" s="9">
+      <c r="N67" s="9">
         <v>54</v>
       </c>
-      <c r="R67" s="9">
+      <c r="T67" s="9">
         <v>361.1</v>
       </c>
-      <c r="S67" s="9">
+      <c r="U67" s="9">
         <v>38.81</v>
       </c>
-      <c r="U67" s="9">
+      <c r="W67" s="9">
         <v>401847000</v>
       </c>
     </row>
-    <row r="68" spans="1:21" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A68" s="9" t="s">
+    <row r="68" spans="1:23" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="18" t="s">
+        <v>236</v>
+      </c>
+      <c r="B68" s="18">
+        <v>7</v>
+      </c>
+      <c r="C68" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="B68" s="9" t="s">
+      <c r="D68" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="C68" s="9" t="s">
+      <c r="E68" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="D68" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="E68" s="9" t="s">
-        <v>162</v>
-      </c>
       <c r="F68" s="9" t="s">
-        <v>163</v>
-      </c>
-      <c r="G68" s="9">
+        <v>115</v>
+      </c>
+      <c r="G68" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="H68" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="I68" s="9">
         <v>2163</v>
       </c>
-      <c r="H68" s="9">
+      <c r="J68" s="9">
         <v>50956</v>
       </c>
-      <c r="I68" s="9">
+      <c r="K68" s="9">
         <v>1926</v>
       </c>
-      <c r="J68" s="9">
-        <v>2014</v>
-      </c>
-      <c r="K68" s="9">
+      <c r="L68" s="9">
+        <v>2014</v>
+      </c>
+      <c r="M68" s="9">
         <v>80</v>
       </c>
-      <c r="L68" s="9">
+      <c r="N68" s="9">
         <v>58.6</v>
       </c>
-      <c r="R68" s="9">
+      <c r="T68" s="9">
         <v>238.9</v>
       </c>
-      <c r="S68" s="9">
+      <c r="U68" s="9">
         <v>22.92</v>
       </c>
-      <c r="U68" s="9">
+      <c r="W68" s="9">
         <v>2200530000</v>
       </c>
     </row>
-    <row r="69" spans="1:21" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A69" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="B69" s="9" t="s">
-        <v>117</v>
+    <row r="69" spans="1:23" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="18" t="s">
+        <v>237</v>
+      </c>
+      <c r="B69" s="18">
+        <v>8</v>
       </c>
       <c r="C69" s="9" t="s">
         <v>36</v>
       </c>
       <c r="D69" s="9" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E69" s="9" t="s">
-        <v>162</v>
+        <v>36</v>
       </c>
       <c r="F69" s="9" t="s">
-        <v>163</v>
-      </c>
-      <c r="G69" s="9">
+        <v>115</v>
+      </c>
+      <c r="G69" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="H69" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="I69" s="9">
         <v>2215</v>
       </c>
-      <c r="H69" s="9">
+      <c r="J69" s="9">
         <v>77750</v>
       </c>
-      <c r="I69" s="9">
+      <c r="K69" s="9">
         <v>1977</v>
       </c>
-      <c r="J69" s="9">
-        <v>2014</v>
-      </c>
-      <c r="K69" s="9">
+      <c r="L69" s="9">
+        <v>2014</v>
+      </c>
+      <c r="M69" s="9">
         <v>78</v>
       </c>
-      <c r="L69" s="9">
+      <c r="N69" s="9">
         <v>65</v>
       </c>
-      <c r="R69" s="9">
+      <c r="T69" s="9">
         <v>367.5</v>
       </c>
-      <c r="S69" s="9">
+      <c r="U69" s="9">
         <v>35.04</v>
       </c>
-      <c r="U69" s="9">
+      <c r="W69" s="9">
         <v>2100468000</v>
       </c>
     </row>
-    <row r="70" spans="1:21" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A70" s="9" t="s">
+    <row r="70" spans="1:23" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="18" t="s">
+        <v>238</v>
+      </c>
+      <c r="B70" s="18">
+        <v>9</v>
+      </c>
+      <c r="C70" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="B70" s="9" t="s">
+      <c r="D70" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="C70" s="9" t="s">
+      <c r="E70" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="D70" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="E70" s="9" t="s">
-        <v>162</v>
-      </c>
       <c r="F70" s="9" t="s">
-        <v>163</v>
-      </c>
-      <c r="G70" s="9">
+        <v>115</v>
+      </c>
+      <c r="G70" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="H70" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="I70" s="9">
         <v>2115</v>
       </c>
-      <c r="H70" s="9">
+      <c r="J70" s="9">
         <v>57190</v>
       </c>
-      <c r="I70" s="9">
+      <c r="K70" s="9">
         <v>1964</v>
       </c>
-      <c r="J70" s="9">
-        <v>2014</v>
-      </c>
-      <c r="K70" s="9">
+      <c r="L70" s="9">
+        <v>2014</v>
+      </c>
+      <c r="M70" s="9">
         <v>81</v>
       </c>
-      <c r="L70" s="9">
+      <c r="N70" s="9">
         <v>68.8</v>
       </c>
-      <c r="R70" s="9">
+      <c r="T70" s="9">
         <v>259.3</v>
       </c>
-      <c r="S70" s="9">
+      <c r="U70" s="9">
         <v>32.770000000000003</v>
       </c>
-      <c r="U70" s="9">
+      <c r="W70" s="9">
         <v>401847000</v>
       </c>
     </row>
-    <row r="71" spans="1:21" s="17" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A71" s="17" t="s">
+    <row r="71" spans="1:23" s="17" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A71" s="18" t="s">
+        <v>229</v>
+      </c>
+      <c r="B71" s="18">
+        <v>10</v>
+      </c>
+      <c r="C71" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="B71" s="17" t="s">
+      <c r="D71" s="17" t="s">
         <v>117</v>
       </c>
-      <c r="C71" s="17" t="s">
+      <c r="E71" s="17" t="s">
         <v>93</v>
       </c>
-      <c r="D71" s="17" t="s">
-        <v>115</v>
-      </c>
-      <c r="E71" s="17" t="s">
-        <v>162</v>
-      </c>
       <c r="F71" s="17" t="s">
-        <v>163</v>
-      </c>
-      <c r="G71" s="17">
+        <v>115</v>
+      </c>
+      <c r="G71" s="17" t="s">
+        <v>162</v>
+      </c>
+      <c r="H71" s="17" t="s">
+        <v>163</v>
+      </c>
+      <c r="I71" s="17">
         <v>2163</v>
       </c>
-      <c r="H71" s="17">
+      <c r="J71" s="17">
         <v>51821</v>
       </c>
-      <c r="I71" s="17">
+      <c r="K71" s="17">
         <v>1926</v>
       </c>
-      <c r="J71" s="17">
-        <v>2014</v>
-      </c>
-      <c r="K71" s="17">
+      <c r="L71" s="17">
+        <v>2014</v>
+      </c>
+      <c r="M71" s="17">
         <v>70</v>
       </c>
-      <c r="L71" s="17">
+      <c r="N71" s="17">
         <v>68.8</v>
       </c>
-      <c r="R71" s="17">
+      <c r="T71" s="17">
         <v>286.7</v>
       </c>
-      <c r="S71" s="17">
+      <c r="U71" s="17">
         <v>23.48</v>
       </c>
-      <c r="U71" s="17">
+      <c r="W71" s="17">
         <v>2200530000</v>
       </c>
+    </row>
+    <row r="72" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="B72" s="18"/>
+    </row>
+    <row r="73" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="B73" s="18"/>
+    </row>
+    <row r="74" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="B74" s="18"/>
+    </row>
+    <row r="75" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="B75" s="18"/>
+    </row>
+    <row r="76" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="B76" s="18"/>
+    </row>
+    <row r="77" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="B77" s="18"/>
+    </row>
+    <row r="78" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="B78" s="18"/>
+    </row>
+    <row r="79" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="B79" s="18"/>
+    </row>
+    <row r="80" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="B80" s="18"/>
+    </row>
+    <row r="81" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B81" s="18"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>